--- a/Datos/Anuario2024/110601_PatrimonioMunicipal.xlsx
+++ b/Datos/Anuario2024/110601_PatrimonioMunicipal.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-15" yWindow="4050" windowWidth="15330" windowHeight="4080" tabRatio="685" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-15" yWindow="4050" windowWidth="15330" windowHeight="4080" tabRatio="685"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="5" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="6" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="0" sheetId="64" r:id="rId1"/>
+    <sheet name="1" sheetId="65" r:id="rId2"/>
+    <sheet name="2" sheetId="68" r:id="rId3"/>
+    <sheet name="3" sheetId="71" r:id="rId4"/>
+    <sheet name="4" sheetId="72" r:id="rId5"/>
+    <sheet name="5" sheetId="73" r:id="rId6"/>
+    <sheet name="6" sheetId="67" r:id="rId7"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId8"/>
@@ -129,96 +135,530 @@
     <definedName name="p">'[4]4.27'!$A$1:$G$22</definedName>
     <definedName name="u">'[4]4.17'!$A$1:$I$8</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="143">
+  <si>
+    <t>Parques, jardines, bulevares, arbolado y plazas ajardinadas</t>
+  </si>
+  <si>
+    <t>Esculturas, monumentos y fuentes ornamentales</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Mercados</t>
+  </si>
+  <si>
+    <t>Vehículos</t>
+  </si>
+  <si>
+    <t>Otros</t>
+  </si>
+  <si>
+    <t>Número</t>
+  </si>
+  <si>
+    <t>Bienes Inmuebles</t>
+  </si>
+  <si>
+    <t>Bienes Histórico-Artísticos</t>
+  </si>
+  <si>
+    <t>Valores Créditos/Derechos</t>
+  </si>
+  <si>
+    <t>Bienes Muebles</t>
+  </si>
+  <si>
+    <t>Otros Bienes</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Superficie de la parcela</t>
+  </si>
+  <si>
+    <t>Superficie construida</t>
+  </si>
+  <si>
+    <t>Centros escolares municipales</t>
+  </si>
+  <si>
+    <t>Edificios y locales públicos</t>
+  </si>
+  <si>
+    <t>Fincas urbanas</t>
+  </si>
+  <si>
+    <t>Suelo edificable</t>
+  </si>
+  <si>
+    <t>Fuera del término municipal</t>
+  </si>
+  <si>
+    <t>Barrios</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Ciutat Vella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1. la Seu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2. la Xerea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3. el Carme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4. el Pilar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5. el Mercat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6. Sant Francesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. l'Eixample</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1. Russafa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2. el Pla del Remei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3. Gran Via</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3. Extramurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1. el Botànic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2. la Roqueta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3. la Petxina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4. Arrancapins</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4. Campanar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1. Campanar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2. les Tendetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3. el Calvari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4. Sant Pau</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5. la Saïdia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1. Marxalenes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2. Morvedre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3. Trinitat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4. Tormos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5. Sant Antoni</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6. el Pla del Real</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1. Exposició</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2. Mestalla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4. Ciutat Universitària</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7. l'Olivereta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1. Nou Moles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2. Soternes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3. Tres Forques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4. la Fontsanta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5. la Llum</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8. Patraix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1. Patraix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2. Sant Isidre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3. Vara de Quart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4. Safranar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5. Favara</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9. Jesús</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1. la Raiosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2. l'Hort de Senabre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3. la Creu Coberta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4. Sant Marcel·lí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5. Camí Real</t>
+  </si>
+  <si>
+    <t>10. Quatre Carreres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1. Mont-Olivet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2. En Corts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3. Malilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4. Fonteta de Sant Lluís</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   5. na Rovella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   6. la Punta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   7. Ciutat de les Arts i de les Ciències</t>
+  </si>
+  <si>
+    <t>11. Poblats Marítims</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1. el Grau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2. el Cabanyal-el Canyamelar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3. la Malva-rosa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4. Beteró</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   5. Natzaret</t>
+  </si>
+  <si>
+    <t>12. Camins Al Grau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1. Aiora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2. Albors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3. la Creu del Grau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4. Camí Fondo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   5. Penya-roja</t>
+  </si>
+  <si>
+    <t>13. Algirós</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1. l'Illa Perduda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2. Ciutat Jardí</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3. l'Amistat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4. la Bega Baixa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   5. la Carrasca</t>
+  </si>
+  <si>
+    <t>14. Benimaclet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1. Benimaclet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2. Camí de Vera</t>
+  </si>
+  <si>
+    <t>15. Rascanya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1. Orriols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2. Torrefiel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3. Sant Llorenç</t>
+  </si>
+  <si>
+    <t>16. Benicalap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1. Benicalap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2. Ciutat Fallera</t>
+  </si>
+  <si>
+    <t>17. Pobles del Nord</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1. Benifaraig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2. Poble Nou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3. Carpesa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   5. Mauella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   6. Massarrojos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   7. Borbotó</t>
+  </si>
+  <si>
+    <t>18. Pobles de l'Oest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1. Benimàmet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2. Beniferri</t>
+  </si>
+  <si>
+    <t>19. Pobles del Sud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   1. el Forn d'Alcedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2. el Castellar-l'Oliverar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3. Pinedo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4. el Saler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   5. el Palmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   6. el Perellonet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   7. la Torre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   8. Faitanar</t>
+  </si>
+  <si>
+    <t>12. Camins al Grau</t>
+  </si>
+  <si>
+    <t>Puentes</t>
+  </si>
+  <si>
+    <t>Suelo no edificable</t>
+  </si>
+  <si>
+    <t>Resto Bienes Inmuebles</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4. Cases de Bàrcena</t>
+  </si>
+  <si>
+    <t>PATRIMONIO MUNICIPAL</t>
+  </si>
+  <si>
+    <t>Nota: Superficie expresada en metros cuadrados. Valor expresado en euros</t>
+  </si>
+  <si>
+    <t>Fuente: Servicio de Patrimonio. Ayuntamiento de València</t>
+  </si>
+  <si>
+    <t>Nota: Valor expresado en euros</t>
+  </si>
+  <si>
+    <t>Nota: Superficie expresada en metros cuadrados</t>
+  </si>
+  <si>
+    <t>1. Número de bienes y valor por epígrafe. 2023</t>
+  </si>
+  <si>
+    <t>2. Número de edificios según tipo por distrito. 2023</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>6. Superficie de la parcela, superficie construida y valor de los edificios por barrio. 2023</t>
+  </si>
+  <si>
+    <t>5. Valor de los edificios según tipo por distrito. 2023</t>
+  </si>
+  <si>
+    <t>4. Superficie construida de los edificios según tipo por distrito. 2023</t>
+  </si>
+  <si>
+    <t>3. Superficie de la parcela de los edificios según tipo por distrito. 2023</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="11"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -247,133 +687,134 @@
   </borders>
   <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="59">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="6" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="6" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="6" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="11">
+    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="6"/>
     <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 4" xfId="5"/>
     <cellStyle name="Normal 5" xfId="4"/>
-    <cellStyle name="Normal 4" xfId="5"/>
-    <cellStyle name="Normal 2 2" xfId="6"/>
     <cellStyle name="Porcentaje 2" xfId="7"/>
     <cellStyle name="style1595592910070" xfId="8"/>
+    <cellStyle name="style1595592910101" xfId="10"/>
     <cellStyle name="style1595592910148" xfId="9"/>
-    <cellStyle name="style1595592910101" xfId="10"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -442,13 +883,26 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFF9F3C7"/>
+      <color rgb="FFCC9900"/>
+      <color rgb="FFFAC090"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -2106,8 +2560,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -13795,7 +14249,7 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v> </v>
+            <v xml:space="preserve"> </v>
           </cell>
           <cell r="B4" t="str">
             <v>Immigrants</v>
@@ -17590,8 +18044,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -19773,8 +20227,8 @@
 </file>
 
 <file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook r:id="rId1">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="1"/>
       <sheetName val="1.1"/>
@@ -20770,5139 +21224,4456 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>PATRIMONIO MUNICIPAL</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja2">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="51.5703125" customWidth="1" min="1" max="1"/>
-    <col width="13.85546875" customWidth="1" min="2" max="2"/>
-    <col width="15.85546875" customWidth="1" min="3" max="3"/>
-    <col width="12.7109375" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col min="1" max="1" width="51.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>1. Número de bienes y valor por epígrafe. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="5" t="n"/>
-      <c r="C1" s="5" t="n"/>
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" s="5" t="n"/>
-      <c r="B2" s="5" t="n"/>
-      <c r="C2" s="5" t="n"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
-    <row r="3" ht="17.25" customHeight="1">
-      <c r="A3" s="26" t="inlineStr">
-        <is>
-          <t>Tipo</t>
-        </is>
-      </c>
-      <c r="B3" s="25" t="inlineStr">
-        <is>
-          <t>Número</t>
-        </is>
-      </c>
-      <c r="C3" s="25" t="inlineStr">
-        <is>
-          <t>Valor</t>
-        </is>
+    <row r="3" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="27" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="55" t="n">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="51">
         <v>36383</v>
       </c>
-      <c r="C4" s="58" t="n">
-        <v>3646884311.3</v>
+      <c r="C4" s="58">
+        <v>3646884311.3000002</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t>Bienes Inmuebles</t>
-        </is>
-      </c>
-      <c r="B5" s="31" t="n">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="23">
         <v>387</v>
       </c>
-      <c r="C5" s="47" t="n">
-        <v>710881618.48</v>
+      <c r="C5" s="19">
+        <v>710881618.48000002</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="38" t="inlineStr">
-        <is>
-          <t>Parques, jardines, bulevares, arbolado y plazas ajardinadas</t>
-        </is>
-      </c>
-      <c r="B6" s="57" t="n">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="22">
         <v>107</v>
       </c>
-      <c r="C6" s="49" t="n">
-        <v>266937559.8</v>
-      </c>
-      <c r="F6" s="21" t="n"/>
+      <c r="C6" s="49">
+        <v>266937559.80000001</v>
+      </c>
+      <c r="F6" s="21"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="11" t="inlineStr">
-        <is>
-          <t>Centros escolares municipales</t>
-        </is>
-      </c>
-      <c r="B7" s="31" t="n">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="23">
         <v>270</v>
       </c>
-      <c r="C7" s="47" t="n">
-        <v>531207733.72</v>
+      <c r="C7" s="19">
+        <v>531207733.72000003</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>Edificios y locales públicos</t>
-        </is>
-      </c>
-      <c r="B8" s="57" t="n">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="22">
         <v>369</v>
       </c>
-      <c r="C8" s="49" t="n">
-        <v>65134641.61</v>
+      <c r="C8" s="49">
+        <v>65134641.609999999</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="11" t="inlineStr">
-        <is>
-          <t>Fincas urbanas</t>
-        </is>
-      </c>
-      <c r="B9" s="31" t="n">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="23">
         <v>15</v>
       </c>
-      <c r="C9" s="47" t="n">
-        <v>60777367.55</v>
+      <c r="C9" s="19">
+        <v>60777367.549999997</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>Mercados</t>
-        </is>
-      </c>
-      <c r="B10" s="57" t="n">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="22">
         <v>18</v>
       </c>
-      <c r="C10" s="49" t="n">
-        <v>32633269.38</v>
+      <c r="C10" s="49">
+        <v>32633269.379999999</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="11" t="inlineStr">
-        <is>
-          <t>Puentes</t>
-        </is>
-      </c>
-      <c r="B11" s="31" t="n">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B11" s="23">
         <v>277</v>
       </c>
-      <c r="C11" s="47" t="n">
+      <c r="C11" s="19">
         <v>13412833.42</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="38" t="inlineStr">
-        <is>
-          <t>Esculturas, monumentos y fuentes ornamentales</t>
-        </is>
-      </c>
-      <c r="B12" s="57" t="n">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="22">
         <v>239</v>
       </c>
-      <c r="C12" s="49" t="n">
-        <v>475421777.36</v>
+      <c r="C12" s="49">
+        <v>475421777.36000001</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="11" t="inlineStr">
-        <is>
-          <t>Suelo edificable</t>
-        </is>
-      </c>
-      <c r="B13" s="31" t="n">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="23">
         <v>2146</v>
       </c>
-      <c r="C13" s="47" t="n">
-        <v>896003061.76</v>
+      <c r="C13" s="19">
+        <v>896003061.75999999</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>Suelo no edificable</t>
-        </is>
-      </c>
-      <c r="B14" s="57" t="n">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="22">
         <v>578</v>
       </c>
-      <c r="C14" s="49" t="n">
-        <v>381786583.64</v>
+      <c r="C14" s="49">
+        <v>381786583.63999999</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="11" t="inlineStr">
-        <is>
-          <t>Resto Bienes Inmuebles</t>
-        </is>
-      </c>
-      <c r="B15" s="31" t="n">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="23">
         <v>2224</v>
       </c>
-      <c r="C15" s="47" t="n">
-        <v>14512046.63</v>
+      <c r="C15" s="19">
+        <v>14512046.630000001</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="5" t="inlineStr">
-        <is>
-          <t>Bienes Histórico-Artísticos</t>
-        </is>
-      </c>
-      <c r="B16" s="57" t="n">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="22">
         <v>31</v>
       </c>
-      <c r="C16" s="49" t="n">
-        <v>73693275.12</v>
+      <c r="C16" s="49">
+        <v>73693275.120000005</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="8" t="inlineStr">
-        <is>
-          <t>Valores Créditos/Derechos</t>
-        </is>
-      </c>
-      <c r="B17" s="31" t="n">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="23">
         <v>565</v>
       </c>
-      <c r="C17" s="47" t="n">
-        <v>21455215.29</v>
+      <c r="C17" s="19">
+        <v>21455215.289999999</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="5" t="inlineStr">
-        <is>
-          <t>Vehículos</t>
-        </is>
-      </c>
-      <c r="B18" s="57" t="n">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="22">
         <v>28178</v>
       </c>
-      <c r="C18" s="49" t="n">
-        <v>83459177.7</v>
+      <c r="C18" s="49">
+        <v>83459177.700000003</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="8" t="inlineStr">
-        <is>
-          <t>Bienes Muebles</t>
-        </is>
-      </c>
-      <c r="B19" s="31" t="n">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="23">
         <v>979</v>
       </c>
-      <c r="C19" s="47" t="n">
+      <c r="C19" s="19">
         <v>19568149.84</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="5" t="inlineStr">
-        <is>
-          <t>Otros Bienes</t>
-        </is>
-      </c>
-      <c r="B20" s="57" t="n"/>
-      <c r="C20" s="49" t="n"/>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="49"/>
     </row>
-    <row r="21">
-      <c r="A21" s="18" t="inlineStr">
-        <is>
-          <t>Nota: Valor expresado en euros</t>
-        </is>
-      </c>
-      <c r="B21" s="18" t="n"/>
-      <c r="C21" s="18" t="n"/>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
     </row>
-    <row r="22">
-      <c r="A22" s="18" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Patrimonio. Ayuntamiento de València</t>
-        </is>
-      </c>
-      <c r="B22" s="18" t="n"/>
-      <c r="C22" s="18" t="n"/>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja3">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="23.42578125" customWidth="1" min="1" max="1"/>
-    <col width="14.5703125" customWidth="1" min="2" max="2"/>
-    <col width="15.28515625" customWidth="1" min="3" max="3"/>
-    <col width="14.5703125" customWidth="1" min="4" max="8"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="8" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>2. Número de edificios según tipo por distrito. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="5" t="n"/>
-      <c r="E1" s="5" t="n"/>
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
-    <row r="3" ht="25.5" customHeight="1">
-      <c r="A3" s="30" t="n"/>
-      <c r="B3" s="12" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="inlineStr">
-        <is>
-          <t>Centros escolares municipales</t>
-        </is>
-      </c>
-      <c r="D3" s="12" t="inlineStr">
-        <is>
-          <t>Edificios y locales públicos</t>
-        </is>
-      </c>
-      <c r="E3" s="12" t="inlineStr">
-        <is>
-          <t>Fincas urbanas</t>
-        </is>
-      </c>
-      <c r="F3" s="12" t="inlineStr">
-        <is>
-          <t>Mercados</t>
-        </is>
-      </c>
-      <c r="G3" s="12" t="inlineStr">
-        <is>
-          <t>Suelo edificable</t>
-        </is>
-      </c>
-      <c r="H3" s="12" t="inlineStr">
-        <is>
-          <t>Otros</t>
-        </is>
+    <row r="3" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="30"/>
+      <c r="B3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="27" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="55" t="n">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="50">
         <v>1137</v>
       </c>
-      <c r="C4" s="55" t="n">
+      <c r="C4" s="50">
         <v>107</v>
       </c>
-      <c r="D4" s="55" t="n">
+      <c r="D4" s="50">
         <v>270</v>
       </c>
-      <c r="E4" s="55" t="n">
+      <c r="E4" s="50">
         <v>369</v>
       </c>
-      <c r="F4" s="55" t="n">
+      <c r="F4" s="50">
         <v>15</v>
       </c>
-      <c r="G4" s="55" t="n">
+      <c r="G4" s="50">
         <v>239</v>
       </c>
-      <c r="H4" s="55" t="n">
+      <c r="H4" s="50">
         <v>137</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. Ciutat Vella</t>
-        </is>
-      </c>
-      <c r="B5" s="31" t="n">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="13">
         <v>140</v>
       </c>
-      <c r="C5" s="31" t="n">
+      <c r="C5" s="13">
         <v>2</v>
       </c>
-      <c r="D5" s="31" t="n">
+      <c r="D5" s="13">
         <v>25</v>
       </c>
-      <c r="E5" s="31" t="n">
+      <c r="E5" s="13">
         <v>77</v>
       </c>
-      <c r="F5" s="31" t="n">
+      <c r="F5" s="13">
         <v>2</v>
       </c>
-      <c r="G5" s="31" t="n">
+      <c r="G5" s="13">
         <v>21</v>
       </c>
-      <c r="H5" s="31" t="n">
+      <c r="H5" s="13">
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2. l'Eixample</t>
-        </is>
-      </c>
-      <c r="B6" s="57" t="n">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="14">
         <v>29</v>
       </c>
-      <c r="C6" s="57" t="n">
+      <c r="C6" s="14">
         <v>2</v>
       </c>
-      <c r="D6" s="57" t="n">
+      <c r="D6" s="14">
         <v>14</v>
       </c>
-      <c r="E6" s="57" t="n">
+      <c r="E6" s="14">
         <v>2</v>
       </c>
-      <c r="F6" s="57" t="n">
+      <c r="F6" s="14">
         <v>1</v>
       </c>
-      <c r="G6" s="57" t="n">
+      <c r="G6" s="14">
         <v>3</v>
       </c>
-      <c r="H6" s="57" t="n">
+      <c r="H6" s="14">
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3. Extramurs</t>
-        </is>
-      </c>
-      <c r="B7" s="31" t="n">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="13">
         <v>26</v>
       </c>
-      <c r="C7" s="31" t="n">
+      <c r="C7" s="13">
         <v>3</v>
       </c>
-      <c r="D7" s="31" t="n">
+      <c r="D7" s="13">
         <v>6</v>
       </c>
-      <c r="E7" s="31" t="n">
+      <c r="E7" s="13">
         <v>8</v>
       </c>
-      <c r="F7" s="31" t="n">
+      <c r="F7" s="13">
         <v>2</v>
       </c>
-      <c r="G7" s="31" t="n">
+      <c r="G7" s="13">
         <v>2</v>
       </c>
-      <c r="H7" s="31" t="n">
+      <c r="H7" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4. Campanar</t>
-        </is>
-      </c>
-      <c r="B8" s="57" t="n">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="14">
         <v>51</v>
       </c>
-      <c r="C8" s="57" t="n">
+      <c r="C8" s="14">
         <v>4</v>
       </c>
-      <c r="D8" s="57" t="n">
+      <c r="D8" s="14">
         <v>16</v>
       </c>
-      <c r="E8" s="57" t="n">
+      <c r="E8" s="14">
         <v>13</v>
       </c>
-      <c r="F8" s="17" t="n">
+      <c r="F8" s="16">
         <v>0</v>
       </c>
-      <c r="G8" s="57" t="n">
+      <c r="G8" s="14">
         <v>15</v>
       </c>
-      <c r="H8" s="57" t="n">
+      <c r="H8" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5. la Saïdia</t>
-        </is>
-      </c>
-      <c r="B9" s="31" t="n">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="13">
         <v>72</v>
       </c>
-      <c r="C9" s="31" t="n">
+      <c r="C9" s="13">
         <v>5</v>
       </c>
-      <c r="D9" s="31" t="n">
+      <c r="D9" s="13">
         <v>33</v>
       </c>
-      <c r="E9" s="31" t="n">
+      <c r="E9" s="13">
         <v>21</v>
       </c>
-      <c r="F9" s="31" t="n">
+      <c r="F9" s="13">
         <v>1</v>
       </c>
-      <c r="G9" s="31" t="n">
+      <c r="G9" s="13">
         <v>4</v>
       </c>
-      <c r="H9" s="31" t="n">
+      <c r="H9" s="13">
         <v>8</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6. el Pla del Real</t>
-        </is>
-      </c>
-      <c r="B10" s="57" t="n">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="14">
         <v>28</v>
       </c>
-      <c r="C10" s="57" t="n">
+      <c r="C10" s="14">
         <v>3</v>
       </c>
-      <c r="D10" s="57" t="n">
+      <c r="D10" s="14">
         <v>18</v>
       </c>
-      <c r="E10" s="57" t="n">
+      <c r="E10" s="14">
         <v>3</v>
       </c>
-      <c r="F10" s="17" t="n">
+      <c r="F10" s="16">
         <v>0</v>
       </c>
-      <c r="G10" s="57" t="n">
+      <c r="G10" s="14">
         <v>2</v>
       </c>
-      <c r="H10" s="57" t="n">
+      <c r="H10" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7. l'Olivereta</t>
-        </is>
-      </c>
-      <c r="B11" s="31" t="n">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="13">
         <v>55</v>
       </c>
-      <c r="C11" s="31" t="n">
+      <c r="C11" s="13">
         <v>8</v>
       </c>
-      <c r="D11" s="31" t="n">
+      <c r="D11" s="13">
         <v>16</v>
       </c>
-      <c r="E11" s="31" t="n">
+      <c r="E11" s="13">
         <v>15</v>
       </c>
-      <c r="F11" s="31" t="n">
+      <c r="F11" s="13">
         <v>1</v>
       </c>
-      <c r="G11" s="31" t="n">
+      <c r="G11" s="13">
         <v>10</v>
       </c>
-      <c r="H11" s="31" t="n">
+      <c r="H11" s="13">
         <v>5</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8. Patraix</t>
-        </is>
-      </c>
-      <c r="B12" s="57" t="n">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="14">
         <v>37</v>
       </c>
-      <c r="C12" s="57" t="n">
+      <c r="C12" s="14">
         <v>6</v>
       </c>
-      <c r="D12" s="57" t="n">
+      <c r="D12" s="14">
         <v>10</v>
       </c>
-      <c r="E12" s="57" t="n">
+      <c r="E12" s="14">
         <v>5</v>
       </c>
-      <c r="F12" s="57" t="n">
+      <c r="F12" s="14">
         <v>1</v>
       </c>
-      <c r="G12" s="57" t="n">
+      <c r="G12" s="14">
         <v>10</v>
       </c>
-      <c r="H12" s="57" t="n">
+      <c r="H12" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9. Jesús</t>
-        </is>
-      </c>
-      <c r="B13" s="31" t="n">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="13">
         <v>30</v>
       </c>
-      <c r="C13" s="31" t="n">
+      <c r="C13" s="13">
         <v>5</v>
       </c>
-      <c r="D13" s="31" t="n">
+      <c r="D13" s="13">
         <v>5</v>
       </c>
-      <c r="E13" s="31" t="n">
+      <c r="E13" s="13">
         <v>10</v>
       </c>
-      <c r="F13" s="15" t="n">
+      <c r="F13" s="15">
         <v>0</v>
       </c>
-      <c r="G13" s="31" t="n">
+      <c r="G13" s="13">
         <v>7</v>
       </c>
-      <c r="H13" s="31" t="n">
+      <c r="H13" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t>10. Quatre Carreres</t>
-        </is>
-      </c>
-      <c r="B14" s="57" t="n">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="14">
         <v>109</v>
       </c>
-      <c r="C14" s="57" t="n">
+      <c r="C14" s="14">
         <v>10</v>
       </c>
-      <c r="D14" s="57" t="n">
+      <c r="D14" s="14">
         <v>16</v>
       </c>
-      <c r="E14" s="57" t="n">
+      <c r="E14" s="14">
         <v>14</v>
       </c>
-      <c r="F14" s="17" t="n">
+      <c r="F14" s="16">
         <v>0</v>
       </c>
-      <c r="G14" s="57" t="n">
+      <c r="G14" s="14">
         <v>47</v>
       </c>
-      <c r="H14" s="57" t="n">
+      <c r="H14" s="14">
         <v>22</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="8" t="inlineStr">
-        <is>
-          <t>11. Poblats Marítims</t>
-        </is>
-      </c>
-      <c r="B15" s="31" t="n">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="13">
         <v>228</v>
       </c>
-      <c r="C15" s="31" t="n">
+      <c r="C15" s="13">
         <v>13</v>
       </c>
-      <c r="D15" s="31" t="n">
+      <c r="D15" s="13">
         <v>28</v>
       </c>
-      <c r="E15" s="31" t="n">
+      <c r="E15" s="13">
         <v>122</v>
       </c>
-      <c r="F15" s="31" t="n">
+      <c r="F15" s="13">
         <v>3</v>
       </c>
-      <c r="G15" s="31" t="n">
+      <c r="G15" s="13">
         <v>48</v>
       </c>
-      <c r="H15" s="31" t="n">
+      <c r="H15" s="13">
         <v>14</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="5" t="inlineStr">
-        <is>
-          <t>12. Camins al Grau</t>
-        </is>
-      </c>
-      <c r="B16" s="57" t="n">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="14">
         <v>51</v>
       </c>
-      <c r="C16" s="57" t="n">
+      <c r="C16" s="14">
         <v>9</v>
       </c>
-      <c r="D16" s="57" t="n">
+      <c r="D16" s="14">
         <v>9</v>
       </c>
-      <c r="E16" s="57" t="n">
+      <c r="E16" s="14">
         <v>18</v>
       </c>
-      <c r="F16" s="57" t="n">
+      <c r="F16" s="14">
         <v>1</v>
       </c>
-      <c r="G16" s="57" t="n">
+      <c r="G16" s="14">
         <v>11</v>
       </c>
-      <c r="H16" s="57" t="n">
+      <c r="H16" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="8" t="inlineStr">
-        <is>
-          <t>13. Algirós</t>
-        </is>
-      </c>
-      <c r="B17" s="31" t="n">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="13">
         <v>33</v>
       </c>
-      <c r="C17" s="31" t="n">
+      <c r="C17" s="13">
         <v>9</v>
       </c>
-      <c r="D17" s="31" t="n">
+      <c r="D17" s="13">
         <v>5</v>
       </c>
-      <c r="E17" s="31" t="n">
+      <c r="E17" s="13">
         <v>4</v>
       </c>
-      <c r="F17" s="15" t="n">
+      <c r="F17" s="15">
         <v>0</v>
       </c>
-      <c r="G17" s="31" t="n">
+      <c r="G17" s="13">
         <v>7</v>
       </c>
-      <c r="H17" s="31" t="n">
+      <c r="H17" s="13">
         <v>8</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="5" t="inlineStr">
-        <is>
-          <t>14. Benimaclet</t>
-        </is>
-      </c>
-      <c r="B18" s="57" t="n">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="14">
         <v>19</v>
       </c>
-      <c r="C18" s="57" t="n">
+      <c r="C18" s="14">
         <v>2</v>
       </c>
-      <c r="D18" s="57" t="n">
+      <c r="D18" s="14">
         <v>8</v>
       </c>
-      <c r="E18" s="57" t="n">
+      <c r="E18" s="14">
         <v>4</v>
       </c>
-      <c r="F18" s="17" t="n">
+      <c r="F18" s="16">
         <v>0</v>
       </c>
-      <c r="G18" s="57" t="n">
+      <c r="G18" s="14">
         <v>1</v>
       </c>
-      <c r="H18" s="57" t="n">
+      <c r="H18" s="14">
         <v>4</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="8" t="inlineStr">
-        <is>
-          <t>15. Rascanya</t>
-        </is>
-      </c>
-      <c r="B19" s="31" t="n">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="13">
         <v>51</v>
       </c>
-      <c r="C19" s="31" t="n">
+      <c r="C19" s="13">
         <v>8</v>
       </c>
-      <c r="D19" s="31" t="n">
+      <c r="D19" s="13">
         <v>11</v>
       </c>
-      <c r="E19" s="31" t="n">
+      <c r="E19" s="13">
         <v>16</v>
       </c>
-      <c r="F19" s="31" t="n">
+      <c r="F19" s="13">
         <v>1</v>
       </c>
-      <c r="G19" s="31" t="n">
+      <c r="G19" s="13">
         <v>12</v>
       </c>
-      <c r="H19" s="31" t="n">
+      <c r="H19" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="5" t="inlineStr">
-        <is>
-          <t>16. Benicalap</t>
-        </is>
-      </c>
-      <c r="B20" s="57" t="n">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="14">
         <v>46</v>
       </c>
-      <c r="C20" s="57" t="n">
+      <c r="C20" s="14">
         <v>5</v>
       </c>
-      <c r="D20" s="57" t="n">
+      <c r="D20" s="14">
         <v>12</v>
       </c>
-      <c r="E20" s="57" t="n">
+      <c r="E20" s="14">
         <v>12</v>
       </c>
-      <c r="F20" s="57" t="n">
+      <c r="F20" s="14">
         <v>1</v>
       </c>
-      <c r="G20" s="57" t="n">
+      <c r="G20" s="14">
         <v>15</v>
       </c>
-      <c r="H20" s="57" t="n">
+      <c r="H20" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="8" t="inlineStr">
-        <is>
-          <t>17. Pobles del Nord</t>
-        </is>
-      </c>
-      <c r="B21" s="31" t="n">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="13">
         <v>26</v>
       </c>
-      <c r="C21" s="31" t="n">
+      <c r="C21" s="13">
         <v>3</v>
       </c>
-      <c r="D21" s="31" t="n">
+      <c r="D21" s="13">
         <v>11</v>
       </c>
-      <c r="E21" s="31" t="n">
+      <c r="E21" s="13">
         <v>4</v>
       </c>
-      <c r="F21" s="15" t="n">
+      <c r="F21" s="15">
         <v>0</v>
       </c>
-      <c r="G21" s="31" t="n">
+      <c r="G21" s="13">
         <v>6</v>
       </c>
-      <c r="H21" s="31" t="n">
+      <c r="H21" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="5" t="inlineStr">
-        <is>
-          <t>18. Pobles de l'Oest</t>
-        </is>
-      </c>
-      <c r="B22" s="57" t="n">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="14">
         <v>23</v>
       </c>
-      <c r="C22" s="57" t="n">
+      <c r="C22" s="14">
         <v>1</v>
       </c>
-      <c r="D22" s="57" t="n">
+      <c r="D22" s="14">
         <v>8</v>
       </c>
-      <c r="E22" s="57" t="n">
+      <c r="E22" s="14">
         <v>4</v>
       </c>
-      <c r="F22" s="57" t="n">
+      <c r="F22" s="14">
         <v>1</v>
       </c>
-      <c r="G22" s="57" t="n">
+      <c r="G22" s="14">
         <v>7</v>
       </c>
-      <c r="H22" s="57" t="n">
+      <c r="H22" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="8" t="inlineStr">
-        <is>
-          <t>19. Pobles del Sud</t>
-        </is>
-      </c>
-      <c r="B23" s="31" t="n">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="13">
         <v>58</v>
       </c>
-      <c r="C23" s="31" t="n">
+      <c r="C23" s="13">
         <v>9</v>
       </c>
-      <c r="D23" s="31" t="n">
+      <c r="D23" s="13">
         <v>17</v>
       </c>
-      <c r="E23" s="31" t="n">
+      <c r="E23" s="13">
         <v>4</v>
       </c>
-      <c r="F23" s="15" t="n">
+      <c r="F23" s="15">
         <v>0</v>
       </c>
-      <c r="G23" s="31" t="n">
+      <c r="G23" s="13">
         <v>10</v>
       </c>
-      <c r="H23" s="31" t="n">
+      <c r="H23" s="13">
         <v>18</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="5" t="inlineStr">
-        <is>
-          <t>Fuera del término municipal</t>
-        </is>
-      </c>
-      <c r="B24" s="56" t="n">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="56">
         <v>25</v>
       </c>
-      <c r="C24" s="56" t="n">
+      <c r="C24" s="56">
         <v>0</v>
       </c>
-      <c r="D24" s="57" t="n">
+      <c r="D24" s="14">
         <v>2</v>
       </c>
-      <c r="E24" s="57" t="n">
+      <c r="E24" s="14">
         <v>13</v>
       </c>
-      <c r="F24" s="17" t="n">
+      <c r="F24" s="16">
         <v>0</v>
       </c>
-      <c r="G24" s="57" t="n">
+      <c r="G24" s="14">
         <v>1</v>
       </c>
-      <c r="H24" s="57" t="n">
+      <c r="H24" s="14">
         <v>9</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="18" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Patrimonio. Ayuntamiento de València</t>
-        </is>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja4">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="23" customWidth="1" min="1" max="1"/>
-    <col width="14.28515625" customWidth="1" min="2" max="2"/>
-    <col width="16" customWidth="1" min="3" max="3"/>
-    <col width="14.28515625" customWidth="1" min="4" max="8"/>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="8" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>3. Superficie de la parcela de los edificios según tipo por distrito. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="5" t="n"/>
-      <c r="E1" s="5" t="n"/>
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
-    <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="30" t="n"/>
-      <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="inlineStr">
-        <is>
-          <t>Centros escolares municipales</t>
-        </is>
-      </c>
-      <c r="D3" s="12" t="inlineStr">
-        <is>
-          <t>Edificios y locales públicos</t>
-        </is>
-      </c>
-      <c r="E3" s="12" t="inlineStr">
-        <is>
-          <t>Fincas urbanas</t>
-        </is>
-      </c>
-      <c r="F3" s="12" t="inlineStr">
-        <is>
-          <t>Mercados</t>
-        </is>
-      </c>
-      <c r="G3" s="12" t="inlineStr">
-        <is>
-          <t>Suelo edificable</t>
-        </is>
-      </c>
-      <c r="H3" s="12" t="inlineStr">
-        <is>
-          <t>Otros</t>
-        </is>
+    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="30"/>
+      <c r="B3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="27" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="52" t="n">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="52">
         <v>3067393.93</v>
       </c>
-      <c r="C4" s="52" t="n">
-        <v>556456.08</v>
-      </c>
-      <c r="D4" s="52" t="n">
+      <c r="C4" s="52">
+        <v>556456.07999999996</v>
+      </c>
+      <c r="D4" s="52">
         <v>442256.39</v>
       </c>
-      <c r="E4" s="52" t="n">
+      <c r="E4" s="52">
         <v>50380.58</v>
       </c>
-      <c r="F4" s="53" t="n">
-        <v>35889.04</v>
-      </c>
-      <c r="G4" s="52" t="n">
+      <c r="F4" s="53">
+        <v>35889.040000000001</v>
+      </c>
+      <c r="G4" s="52">
         <v>886192.11</v>
       </c>
-      <c r="H4" s="52" t="n">
+      <c r="H4" s="52">
         <v>1096219.73</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. Ciutat Vella</t>
-        </is>
-      </c>
-      <c r="B5" s="44" t="n">
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="33">
         <v>69855.89</v>
       </c>
-      <c r="C5" s="44" t="n">
-        <v>2155.57</v>
-      </c>
-      <c r="D5" s="44" t="n">
-        <v>20897.33</v>
-      </c>
-      <c r="E5" s="44" t="n">
+      <c r="C5" s="33">
+        <v>2155.5700000000002</v>
+      </c>
+      <c r="D5" s="33">
+        <v>20897.330000000002</v>
+      </c>
+      <c r="E5" s="33">
         <v>13375.96</v>
       </c>
-      <c r="F5" s="35" t="n">
+      <c r="F5" s="35">
         <v>9734.66</v>
       </c>
-      <c r="G5" s="44" t="n">
+      <c r="G5" s="33">
         <v>8003.71</v>
       </c>
-      <c r="H5" s="44" t="n">
+      <c r="H5" s="33">
         <v>15688.66</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2. l'Eixample</t>
-        </is>
-      </c>
-      <c r="B6" s="43" t="n">
-        <v>40454.7</v>
-      </c>
-      <c r="C6" s="43" t="n">
+    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="32">
+        <v>40454.699999999997</v>
+      </c>
+      <c r="C6" s="32">
         <v>4169.22</v>
       </c>
-      <c r="D6" s="43" t="n">
+      <c r="D6" s="32">
         <v>15022.78</v>
       </c>
-      <c r="E6" s="43" t="n">
+      <c r="E6" s="32">
         <v>350.85</v>
       </c>
-      <c r="F6" s="45" t="n">
+      <c r="F6" s="34">
         <v>4670.8</v>
       </c>
-      <c r="G6" s="43" t="n">
-        <v>8737.799999999999</v>
-      </c>
-      <c r="H6" s="43" t="n">
+      <c r="G6" s="32">
+        <v>8737.7999999999993</v>
+      </c>
+      <c r="H6" s="32">
         <v>7503.25</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3. Extramurs</t>
-        </is>
-      </c>
-      <c r="B7" s="44" t="n">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="33">
         <v>56799.48</v>
       </c>
-      <c r="C7" s="44" t="n">
+      <c r="C7" s="33">
         <v>11832.43</v>
       </c>
-      <c r="D7" s="44" t="n">
-        <v>40205.45</v>
-      </c>
-      <c r="E7" s="44" t="n">
+      <c r="D7" s="33">
+        <v>40205.449999999997</v>
+      </c>
+      <c r="E7" s="33">
         <v>712.55</v>
       </c>
-      <c r="F7" s="35" t="n">
+      <c r="F7" s="35">
         <v>2034.4</v>
       </c>
-      <c r="G7" s="44" t="n">
+      <c r="G7" s="33">
         <v>1077</v>
       </c>
-      <c r="H7" s="44" t="n">
+      <c r="H7" s="33">
         <v>937.65</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4. Campanar</t>
-        </is>
-      </c>
-      <c r="B8" s="43" t="n">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="32">
         <v>121966.86</v>
       </c>
-      <c r="C8" s="43" t="n">
+      <c r="C8" s="32">
         <v>23334.13</v>
       </c>
-      <c r="D8" s="43" t="n">
+      <c r="D8" s="32">
         <v>15294.38</v>
       </c>
-      <c r="E8" s="43" t="n">
-        <v>2352.01</v>
-      </c>
-      <c r="F8" s="45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G8" s="43" t="n">
+      <c r="E8" s="32">
+        <v>2352.0100000000002</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" s="32">
         <v>67227.17</v>
       </c>
-      <c r="H8" s="43" t="n">
+      <c r="H8" s="32">
         <v>13759.17</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5. la Saïdia</t>
-        </is>
-      </c>
-      <c r="B9" s="44" t="n">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="33">
         <v>56250.27</v>
       </c>
-      <c r="C9" s="44" t="n">
-        <v>18645.6</v>
-      </c>
-      <c r="D9" s="44" t="n">
+      <c r="C9" s="33">
+        <v>18645.599999999999</v>
+      </c>
+      <c r="D9" s="33">
         <v>11427.91</v>
       </c>
-      <c r="E9" s="44" t="n">
+      <c r="E9" s="33">
         <v>2476.37</v>
       </c>
-      <c r="F9" s="35" t="n">
+      <c r="F9" s="35">
         <v>374.1</v>
       </c>
-      <c r="G9" s="44" t="n">
+      <c r="G9" s="33">
         <v>12706.18</v>
       </c>
-      <c r="H9" s="44" t="n">
+      <c r="H9" s="33">
         <v>10620.11</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6. el Pla del Real</t>
-        </is>
-      </c>
-      <c r="B10" s="43" t="n">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="32">
         <v>45225.23</v>
       </c>
-      <c r="C10" s="43" t="n">
-        <v>9767.700000000001</v>
-      </c>
-      <c r="D10" s="43" t="n">
+      <c r="C10" s="32">
+        <v>9767.7000000000007</v>
+      </c>
+      <c r="D10" s="32">
         <v>21881.26</v>
       </c>
-      <c r="E10" s="43" t="n">
+      <c r="E10" s="32">
         <v>7849.46</v>
       </c>
-      <c r="F10" s="45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G10" s="43" t="n">
+      <c r="F10" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="32">
         <v>744.59</v>
       </c>
-      <c r="H10" s="43" t="n">
+      <c r="H10" s="32">
         <v>4982.22</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7. l'Olivereta</t>
-        </is>
-      </c>
-      <c r="B11" s="44" t="n">
-        <v>99300.85000000001</v>
-      </c>
-      <c r="C11" s="44" t="n">
-        <v>36509.88</v>
-      </c>
-      <c r="D11" s="44" t="n">
-        <v>33998.64</v>
-      </c>
-      <c r="E11" s="44" t="n">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="33">
+        <v>99300.85</v>
+      </c>
+      <c r="C11" s="33">
+        <v>36509.879999999997</v>
+      </c>
+      <c r="D11" s="33">
+        <v>33998.639999999999</v>
+      </c>
+      <c r="E11" s="33">
         <v>953.96</v>
       </c>
-      <c r="F11" s="35" t="n">
+      <c r="F11" s="35">
         <v>4036.5</v>
       </c>
-      <c r="G11" s="44" t="n">
+      <c r="G11" s="33">
         <v>11254.03</v>
       </c>
-      <c r="H11" s="44" t="n">
+      <c r="H11" s="33">
         <v>12547.84</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8. Patraix</t>
-        </is>
-      </c>
-      <c r="B12" s="43" t="n">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="32">
         <v>183030.25</v>
       </c>
-      <c r="C12" s="43" t="n">
+      <c r="C12" s="32">
         <v>42414.54</v>
       </c>
-      <c r="D12" s="43" t="n">
+      <c r="D12" s="32">
         <v>5908.67</v>
       </c>
-      <c r="E12" s="43" t="n">
+      <c r="E12" s="32">
         <v>480.48</v>
       </c>
-      <c r="F12" s="45" t="n">
+      <c r="F12" s="34">
         <v>768</v>
       </c>
-      <c r="G12" s="43" t="n">
+      <c r="G12" s="32">
         <v>114539.54</v>
       </c>
-      <c r="H12" s="43" t="n">
+      <c r="H12" s="32">
         <v>18919.02</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9. Jesús</t>
-        </is>
-      </c>
-      <c r="B13" s="44" t="n">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="33">
         <v>462245.18</v>
       </c>
-      <c r="C13" s="44" t="n">
+      <c r="C13" s="33">
         <v>36068.15</v>
       </c>
-      <c r="D13" s="44" t="n">
+      <c r="D13" s="33">
         <v>13863.95</v>
       </c>
-      <c r="E13" s="44" t="n">
+      <c r="E13" s="33">
         <v>832.51</v>
       </c>
-      <c r="F13" s="35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G13" s="44" t="n">
+      <c r="F13" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="33">
         <v>57948.79</v>
       </c>
-      <c r="H13" s="44" t="n">
+      <c r="H13" s="33">
         <v>353531.78</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t>10. Quatre Carreres</t>
-        </is>
-      </c>
-      <c r="B14" s="43" t="n">
+    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="32">
         <v>341200.21</v>
       </c>
-      <c r="C14" s="43" t="n">
+      <c r="C14" s="32">
         <v>57981.74</v>
       </c>
-      <c r="D14" s="43" t="n">
+      <c r="D14" s="32">
         <v>23976.12</v>
       </c>
-      <c r="E14" s="43" t="n">
+      <c r="E14" s="32">
         <v>2077.17</v>
       </c>
-      <c r="F14" s="45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G14" s="43" t="n">
+      <c r="F14" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="32">
         <v>247094.29</v>
       </c>
-      <c r="H14" s="43" t="n">
+      <c r="H14" s="32">
         <v>10070.89</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="8" t="inlineStr">
-        <is>
-          <t>11. Poblats Marítims</t>
-        </is>
-      </c>
-      <c r="B15" s="44" t="n">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="33">
         <v>180669.84</v>
       </c>
-      <c r="C15" s="44" t="n">
+      <c r="C15" s="33">
         <v>48343.83</v>
       </c>
-      <c r="D15" s="44" t="n">
+      <c r="D15" s="33">
         <v>54718.3</v>
       </c>
-      <c r="E15" s="44" t="n">
+      <c r="E15" s="33">
         <v>10799.06</v>
       </c>
-      <c r="F15" s="35" t="n">
+      <c r="F15" s="35">
         <v>6701.75</v>
       </c>
-      <c r="G15" s="44" t="n">
-        <v>34962.12</v>
-      </c>
-      <c r="H15" s="44" t="n">
+      <c r="G15" s="33">
+        <v>34962.120000000003</v>
+      </c>
+      <c r="H15" s="33">
         <v>25144.78</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="5" t="inlineStr">
-        <is>
-          <t>12. Camins al Grau</t>
-        </is>
-      </c>
-      <c r="B16" s="43" t="n">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="32">
         <v>120497.77</v>
       </c>
-      <c r="C16" s="43" t="n">
+      <c r="C16" s="32">
         <v>38744.9</v>
       </c>
-      <c r="D16" s="43" t="n">
+      <c r="D16" s="32">
         <v>17335.12</v>
       </c>
-      <c r="E16" s="43" t="n">
+      <c r="E16" s="32">
         <v>1672.15</v>
       </c>
-      <c r="F16" s="45" t="n">
+      <c r="F16" s="34">
         <v>1662.5</v>
       </c>
-      <c r="G16" s="43" t="n">
+      <c r="G16" s="32">
         <v>53498.06</v>
       </c>
-      <c r="H16" s="43" t="n">
+      <c r="H16" s="32">
         <v>7585.04</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="8" t="inlineStr">
-        <is>
-          <t>13. Algirós</t>
-        </is>
-      </c>
-      <c r="B17" s="44" t="n">
-        <v>141573.86</v>
-      </c>
-      <c r="C17" s="44" t="n">
+    <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="33">
+        <v>141573.85999999999</v>
+      </c>
+      <c r="C17" s="33">
         <v>52884.29</v>
       </c>
-      <c r="D17" s="44" t="n">
+      <c r="D17" s="33">
         <v>6533.67</v>
       </c>
-      <c r="E17" s="44" t="n">
-        <v>131.2</v>
-      </c>
-      <c r="F17" s="35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G17" s="44" t="n">
+      <c r="E17" s="33">
+        <v>131.19999999999999</v>
+      </c>
+      <c r="F17" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" s="33">
         <v>35923.72</v>
       </c>
-      <c r="H17" s="44" t="n">
+      <c r="H17" s="33">
         <v>46100.98</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="5" t="inlineStr">
-        <is>
-          <t>14. Benimaclet</t>
-        </is>
-      </c>
-      <c r="B18" s="43" t="n">
-        <v>34981.38</v>
-      </c>
-      <c r="C18" s="43" t="n">
-        <v>18597.33</v>
-      </c>
-      <c r="D18" s="43" t="n">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="32">
+        <v>34981.379999999997</v>
+      </c>
+      <c r="C18" s="32">
+        <v>18597.330000000002</v>
+      </c>
+      <c r="D18" s="32">
         <v>8049.26</v>
       </c>
-      <c r="E18" s="43" t="n">
+      <c r="E18" s="32">
         <v>659.8</v>
       </c>
-      <c r="F18" s="45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G18" s="43" t="n">
+      <c r="F18" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" s="32">
         <v>6556.71</v>
       </c>
-      <c r="H18" s="43" t="n">
+      <c r="H18" s="32">
         <v>1118.28</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="8" t="inlineStr">
-        <is>
-          <t>15. Rascanya</t>
-        </is>
-      </c>
-      <c r="B19" s="44" t="n">
+    <row r="19" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="33">
         <v>133787</v>
       </c>
-      <c r="C19" s="44" t="n">
-        <v>41544.96</v>
-      </c>
-      <c r="D19" s="44" t="n">
+      <c r="C19" s="33">
+        <v>41544.959999999999</v>
+      </c>
+      <c r="D19" s="33">
         <v>29316.7</v>
       </c>
-      <c r="E19" s="44" t="n">
+      <c r="E19" s="33">
         <v>902.86</v>
       </c>
-      <c r="F19" s="35" t="n">
+      <c r="F19" s="35">
         <v>2800</v>
       </c>
-      <c r="G19" s="44" t="n">
+      <c r="G19" s="33">
         <v>58718.78</v>
       </c>
-      <c r="H19" s="44" t="n">
+      <c r="H19" s="33">
         <v>503.7</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="5" t="inlineStr">
-        <is>
-          <t>16. Benicalap</t>
-        </is>
-      </c>
-      <c r="B20" s="43" t="n">
+    <row r="20" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="32">
         <v>140395</v>
       </c>
-      <c r="C20" s="43" t="n">
+      <c r="C20" s="32">
         <v>24750.06</v>
       </c>
-      <c r="D20" s="43" t="n">
+      <c r="D20" s="32">
         <v>13861.07</v>
       </c>
-      <c r="E20" s="43" t="n">
+      <c r="E20" s="32">
         <v>671.74</v>
       </c>
-      <c r="F20" s="45" t="n">
+      <c r="F20" s="34">
         <v>2898.82</v>
       </c>
-      <c r="G20" s="43" t="n">
-        <v>97560.57000000001</v>
-      </c>
-      <c r="H20" s="43" t="n">
+      <c r="G20" s="32">
+        <v>97560.57</v>
+      </c>
+      <c r="H20" s="32">
         <v>652.74</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="8" t="inlineStr">
-        <is>
-          <t>17. Pobles del Nord</t>
-        </is>
-      </c>
-      <c r="B21" s="44" t="n">
+    <row r="21" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="33">
         <v>55128.54</v>
       </c>
-      <c r="C21" s="44" t="n">
+      <c r="C21" s="33">
         <v>23644.31</v>
       </c>
-      <c r="D21" s="44" t="n">
+      <c r="D21" s="33">
         <v>3882.34</v>
       </c>
-      <c r="E21" s="44" t="n">
+      <c r="E21" s="33">
         <v>770.25</v>
       </c>
-      <c r="F21" s="35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G21" s="44" t="n">
+      <c r="F21" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="33">
         <v>22115.47</v>
       </c>
-      <c r="H21" s="44" t="n">
+      <c r="H21" s="33">
         <v>4716.17</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="5" t="inlineStr">
-        <is>
-          <t>18. Pobles de l'Oest</t>
-        </is>
-      </c>
-      <c r="B22" s="43" t="n">
+    <row r="22" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="32">
         <v>73377.72</v>
       </c>
-      <c r="C22" s="43" t="n">
+      <c r="C22" s="32">
         <v>11341</v>
       </c>
-      <c r="D22" s="43" t="n">
+      <c r="D22" s="32">
         <v>35166.03</v>
       </c>
-      <c r="E22" s="43" t="n">
+      <c r="E22" s="32">
         <v>298.57</v>
       </c>
-      <c r="F22" s="45" t="n">
+      <c r="F22" s="34">
         <v>207.51</v>
       </c>
-      <c r="G22" s="43" t="n">
-        <v>18242.49</v>
-      </c>
-      <c r="H22" s="43" t="n">
+      <c r="G22" s="32">
+        <v>18242.490000000002</v>
+      </c>
+      <c r="H22" s="32">
         <v>8122.12</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="8" t="inlineStr">
-        <is>
-          <t>19. Pobles del Sud</t>
-        </is>
-      </c>
-      <c r="B23" s="44" t="n">
+    <row r="23" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="33">
         <v>204871.81</v>
       </c>
-      <c r="C23" s="44" t="n">
+      <c r="C23" s="33">
         <v>53726.44</v>
       </c>
-      <c r="D23" s="44" t="n">
+      <c r="D23" s="33">
         <v>59486.91</v>
       </c>
-      <c r="E23" s="44" t="n">
+      <c r="E23" s="33">
         <v>331.21</v>
       </c>
-      <c r="F23" s="35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G23" s="44" t="n">
+      <c r="F23" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" s="33">
         <v>27992.97</v>
       </c>
-      <c r="H23" s="44" t="n">
+      <c r="H23" s="33">
         <v>63334.28</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="5" t="inlineStr">
-        <is>
-          <t>Fuera del término municipal</t>
-        </is>
-      </c>
-      <c r="B24" s="43" t="n">
+    <row r="24" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="32">
         <v>505782.09</v>
       </c>
-      <c r="C24" s="45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D24" s="43" t="n">
+      <c r="C24" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="32">
         <v>11430.5</v>
       </c>
-      <c r="E24" s="43" t="n">
+      <c r="E24" s="32">
         <v>2682.42</v>
       </c>
-      <c r="F24" s="45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G24" s="43" t="n">
-        <v>1288.12</v>
-      </c>
-      <c r="H24" s="43" t="n">
+      <c r="F24" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="32">
+        <v>1288.1199999999999</v>
+      </c>
+      <c r="H24" s="32">
         <v>490381.05</v>
       </c>
-      <c r="I24" s="40" t="n"/>
+      <c r="I24" s="40"/>
     </row>
-    <row r="25">
-      <c r="A25" s="18" t="inlineStr">
-        <is>
-          <t>Nota: Superficie expresada en metros cuadrados</t>
-        </is>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="18" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Patrimonio. Ayuntamiento de València</t>
-        </is>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="18" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja5">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="23.140625" customWidth="1" min="1" max="1"/>
-    <col width="15.140625" customWidth="1" min="2" max="8"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="8" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>4. Superficie construida de los edificios según tipo por distrito. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="5" t="n"/>
-      <c r="E1" s="5" t="n"/>
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
-    <row r="3" ht="25.5" customHeight="1">
-      <c r="A3" s="30" t="n"/>
-      <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="inlineStr">
-        <is>
-          <t>Centros escolares municipales</t>
-        </is>
-      </c>
-      <c r="D3" s="12" t="inlineStr">
-        <is>
-          <t>Edificios y locales públicos</t>
-        </is>
-      </c>
-      <c r="E3" s="12" t="inlineStr">
-        <is>
-          <t>Fincas urbanas</t>
-        </is>
-      </c>
-      <c r="F3" s="12" t="inlineStr">
-        <is>
-          <t>Mercados</t>
-        </is>
-      </c>
-      <c r="G3" s="12" t="inlineStr">
-        <is>
-          <t>Suelo edificable</t>
-        </is>
-      </c>
-      <c r="H3" s="12" t="inlineStr">
-        <is>
-          <t>Otros</t>
-        </is>
+    <row r="3" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="30"/>
+      <c r="B3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="27" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="52" t="n">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="52">
         <v>1224042.44</v>
       </c>
-      <c r="C4" s="52" t="n">
+      <c r="C4" s="52">
         <v>282440.57</v>
       </c>
-      <c r="D4" s="52" t="n">
+      <c r="D4" s="52">
         <v>481297.23</v>
       </c>
-      <c r="E4" s="52" t="n">
-        <v>84350.28999999999</v>
-      </c>
-      <c r="F4" s="53" t="n">
+      <c r="E4" s="52">
+        <v>84350.29</v>
+      </c>
+      <c r="F4" s="53">
         <v>56807.67</v>
       </c>
-      <c r="G4" s="52" t="n">
+      <c r="G4" s="52">
         <v>1666.3</v>
       </c>
-      <c r="H4" s="52" t="n">
+      <c r="H4" s="52">
         <v>317480.38</v>
       </c>
-      <c r="I4" s="40" t="n"/>
+      <c r="I4" s="40"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. Ciutat Vella</t>
-        </is>
-      </c>
-      <c r="B5" s="44" t="n">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="33">
         <v>149174.18</v>
       </c>
-      <c r="C5" s="44" t="n">
+      <c r="C5" s="33">
         <v>3457.05</v>
       </c>
-      <c r="D5" s="44" t="n">
+      <c r="D5" s="33">
         <v>55773.61</v>
       </c>
-      <c r="E5" s="44" t="n">
+      <c r="E5" s="33">
         <v>31297.39</v>
       </c>
-      <c r="F5" s="35" t="n">
+      <c r="F5" s="35">
         <v>17898</v>
       </c>
-      <c r="G5" s="44" t="n">
+      <c r="G5" s="33">
         <v>1666.3</v>
       </c>
-      <c r="H5" s="44" t="n">
+      <c r="H5" s="33">
         <v>39081.83</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2. l'Eixample</t>
-        </is>
-      </c>
-      <c r="B6" s="43" t="n">
-        <v>78258.99000000001</v>
-      </c>
-      <c r="C6" s="43" t="n">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="32">
+        <v>78258.990000000005</v>
+      </c>
+      <c r="C6" s="32">
         <v>4244.37</v>
       </c>
-      <c r="D6" s="43" t="n">
-        <v>36036.09</v>
-      </c>
-      <c r="E6" s="43" t="n">
+      <c r="D6" s="32">
+        <v>36036.089999999997</v>
+      </c>
+      <c r="E6" s="32">
         <v>350.85</v>
       </c>
-      <c r="F6" s="45" t="n">
+      <c r="F6" s="34">
         <v>7684.8</v>
       </c>
-      <c r="G6" s="45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H6" s="43" t="n">
-        <v>29942.88</v>
+      <c r="G6" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="H6" s="32">
+        <v>29942.880000000001</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3. Extramurs</t>
-        </is>
-      </c>
-      <c r="B7" s="44" t="n">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="33">
         <v>54608.79</v>
       </c>
-      <c r="C7" s="44" t="n">
+      <c r="C7" s="33">
         <v>10450.02</v>
       </c>
-      <c r="D7" s="44" t="n">
+      <c r="D7" s="33">
         <v>29457.57</v>
       </c>
-      <c r="E7" s="44" t="n">
+      <c r="E7" s="33">
         <v>655.76</v>
       </c>
-      <c r="F7" s="35" t="n">
+      <c r="F7" s="35">
         <v>3189.6</v>
       </c>
-      <c r="G7" s="35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H7" s="44" t="n">
+      <c r="G7" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="H7" s="33">
         <v>10855.84</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4. Campanar</t>
-        </is>
-      </c>
-      <c r="B8" s="43" t="n">
-        <v>40812.45</v>
-      </c>
-      <c r="C8" s="43" t="n">
-        <v>9417.190000000001</v>
-      </c>
-      <c r="D8" s="43" t="n">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="32">
+        <v>40812.449999999997</v>
+      </c>
+      <c r="C8" s="32">
+        <v>9417.19</v>
+      </c>
+      <c r="D8" s="32">
         <v>15025.82</v>
       </c>
-      <c r="E8" s="43" t="n">
+      <c r="E8" s="32">
         <v>1999.7</v>
       </c>
-      <c r="F8" s="45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G8" s="45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H8" s="43" t="n">
+      <c r="F8" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="H8" s="32">
         <v>14369.74</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5. la Saïdia</t>
-        </is>
-      </c>
-      <c r="B9" s="44" t="n">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="33">
         <v>37855.96</v>
       </c>
-      <c r="C9" s="44" t="n">
+      <c r="C9" s="33">
         <v>10011.84</v>
       </c>
-      <c r="D9" s="44" t="n">
+      <c r="D9" s="33">
         <v>12728.25</v>
       </c>
-      <c r="E9" s="44" t="n">
+      <c r="E9" s="33">
         <v>2243.17</v>
       </c>
-      <c r="F9" s="35" t="n">
+      <c r="F9" s="35">
         <v>374.1</v>
       </c>
-      <c r="G9" s="35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H9" s="44" t="n">
+      <c r="G9" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="33">
         <v>12498.6</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6. el Pla del Real</t>
-        </is>
-      </c>
-      <c r="B10" s="43" t="n">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="32">
         <v>96417.14</v>
       </c>
-      <c r="C10" s="43" t="n">
+      <c r="C10" s="32">
         <v>7270.29</v>
       </c>
-      <c r="D10" s="43" t="n">
+      <c r="D10" s="32">
         <v>52646.73</v>
       </c>
-      <c r="E10" s="43" t="n">
+      <c r="E10" s="32">
         <v>22254.46</v>
       </c>
-      <c r="F10" s="45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G10" s="45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H10" s="43" t="n">
+      <c r="F10" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="32">
         <v>14245.66</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7. l'Olivereta</t>
-        </is>
-      </c>
-      <c r="B11" s="44" t="n">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="33">
         <v>77468.7</v>
       </c>
-      <c r="C11" s="44" t="n">
+      <c r="C11" s="33">
         <v>15808.06</v>
       </c>
-      <c r="D11" s="44" t="n">
+      <c r="D11" s="33">
         <v>32967.39</v>
       </c>
-      <c r="E11" s="44" t="n">
+      <c r="E11" s="33">
         <v>1536.59</v>
       </c>
-      <c r="F11" s="35" t="n">
+      <c r="F11" s="35">
         <v>7423.02</v>
       </c>
-      <c r="G11" s="35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H11" s="44" t="n">
+      <c r="G11" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" s="33">
         <v>19733.64</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8. Patraix</t>
-        </is>
-      </c>
-      <c r="B12" s="43" t="n">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="32">
         <v>57337.43</v>
       </c>
-      <c r="C12" s="43" t="n">
-        <v>19974.99</v>
-      </c>
-      <c r="D12" s="43" t="n">
+      <c r="C12" s="32">
+        <v>19974.990000000002</v>
+      </c>
+      <c r="D12" s="32">
         <v>10622.47</v>
       </c>
-      <c r="E12" s="43" t="n">
+      <c r="E12" s="32">
         <v>617.51</v>
       </c>
-      <c r="F12" s="45" t="n">
+      <c r="F12" s="34">
         <v>768</v>
       </c>
-      <c r="G12" s="45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H12" s="43" t="n">
+      <c r="G12" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" s="32">
         <v>25354.46</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9. Jesús</t>
-        </is>
-      </c>
-      <c r="B13" s="44" t="n">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="33">
         <v>34971.47</v>
       </c>
-      <c r="C13" s="44" t="n">
+      <c r="C13" s="33">
         <v>16846.2</v>
       </c>
-      <c r="D13" s="44" t="n">
+      <c r="D13" s="33">
         <v>15822.57</v>
       </c>
-      <c r="E13" s="44" t="n">
+      <c r="E13" s="33">
         <v>620.39</v>
       </c>
-      <c r="F13" s="35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G13" s="35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H13" s="44" t="n">
+      <c r="F13" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" s="33">
         <v>1682.31</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t>10. Quatre Carreres</t>
-        </is>
-      </c>
-      <c r="B14" s="43" t="n">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="32">
         <v>58547.62</v>
       </c>
-      <c r="C14" s="43" t="n">
+      <c r="C14" s="32">
         <v>27836.33</v>
       </c>
-      <c r="D14" s="43" t="n">
+      <c r="D14" s="32">
         <v>20489.32</v>
       </c>
-      <c r="E14" s="43" t="n">
+      <c r="E14" s="32">
         <v>1352.55</v>
       </c>
-      <c r="F14" s="45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G14" s="45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H14" s="43" t="n">
+      <c r="F14" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" s="32">
         <v>8869.42</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="8" t="inlineStr">
-        <is>
-          <t>11. Poblats Marítims</t>
-        </is>
-      </c>
-      <c r="B15" s="44" t="n">
-        <v>131925.83</v>
-      </c>
-      <c r="C15" s="44" t="n">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="33">
+        <v>131925.82999999999</v>
+      </c>
+      <c r="C15" s="33">
         <v>30075.96</v>
       </c>
-      <c r="D15" s="44" t="n">
+      <c r="D15" s="33">
         <v>61558.1</v>
       </c>
-      <c r="E15" s="44" t="n">
+      <c r="E15" s="33">
         <v>13010.35</v>
       </c>
-      <c r="F15" s="35" t="n">
+      <c r="F15" s="35">
         <v>6701.75</v>
       </c>
-      <c r="G15" s="35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H15" s="44" t="n">
-        <v>20579.67</v>
+      <c r="G15" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="H15" s="33">
+        <v>20579.669999999998</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="5" t="inlineStr">
-        <is>
-          <t>12. Camins al Grau</t>
-        </is>
-      </c>
-      <c r="B16" s="43" t="n">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="32">
         <v>79737.23</v>
       </c>
-      <c r="C16" s="43" t="n">
+      <c r="C16" s="32">
         <v>25991.81</v>
       </c>
-      <c r="D16" s="43" t="n">
-        <v>16908.4</v>
-      </c>
-      <c r="E16" s="43" t="n">
+      <c r="D16" s="32">
+        <v>16908.400000000001</v>
+      </c>
+      <c r="E16" s="32">
         <v>1743.95</v>
       </c>
-      <c r="F16" s="45" t="n">
+      <c r="F16" s="34">
         <v>3837</v>
       </c>
-      <c r="G16" s="45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H16" s="43" t="n">
+      <c r="G16" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" s="32">
         <v>31256.07</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="8" t="inlineStr">
-        <is>
-          <t>13. Algirós</t>
-        </is>
-      </c>
-      <c r="B17" s="44" t="n">
-        <v>68769.46000000001</v>
-      </c>
-      <c r="C17" s="44" t="n">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="33">
+        <v>68769.460000000006</v>
+      </c>
+      <c r="C17" s="33">
         <v>31254.07</v>
       </c>
-      <c r="D17" s="44" t="n">
+      <c r="D17" s="33">
         <v>7480.92</v>
       </c>
-      <c r="E17" s="44" t="n">
+      <c r="E17" s="33">
         <v>1128.04</v>
       </c>
-      <c r="F17" s="35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G17" s="35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H17" s="44" t="n">
+      <c r="F17" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" s="33">
         <v>28906.43</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="5" t="inlineStr">
-        <is>
-          <t>14. Benimaclet</t>
-        </is>
-      </c>
-      <c r="B18" s="43" t="n">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="32">
         <v>15942.74</v>
       </c>
-      <c r="C18" s="43" t="n">
+      <c r="C18" s="32">
         <v>7990.66</v>
       </c>
-      <c r="D18" s="43" t="n">
+      <c r="D18" s="32">
         <v>5317.66</v>
       </c>
-      <c r="E18" s="43" t="n">
+      <c r="E18" s="32">
         <v>1447.8</v>
       </c>
-      <c r="F18" s="45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G18" s="45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H18" s="43" t="n">
-        <v>1186.62</v>
+      <c r="F18" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="H18" s="32">
+        <v>1186.6199999999999</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="8" t="inlineStr">
-        <is>
-          <t>15. Rascanya</t>
-        </is>
-      </c>
-      <c r="B19" s="44" t="n">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="33">
         <v>53643.88</v>
       </c>
-      <c r="C19" s="44" t="n">
-        <v>17868.69</v>
-      </c>
-      <c r="D19" s="44" t="n">
-        <v>32048.4</v>
-      </c>
-      <c r="E19" s="44" t="n">
+      <c r="C19" s="33">
+        <v>17868.689999999999</v>
+      </c>
+      <c r="D19" s="33">
+        <v>32048.400000000001</v>
+      </c>
+      <c r="E19" s="33">
         <v>623.09</v>
       </c>
-      <c r="F19" s="35" t="n">
+      <c r="F19" s="35">
         <v>2600</v>
       </c>
-      <c r="G19" s="35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H19" s="44" t="n">
+      <c r="G19" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="H19" s="33">
         <v>503.7</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="5" t="inlineStr">
-        <is>
-          <t>16. Benicalap</t>
-        </is>
-      </c>
-      <c r="B20" s="43" t="n">
-        <v>35097.63</v>
-      </c>
-      <c r="C20" s="43" t="n">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="32">
+        <v>35097.629999999997</v>
+      </c>
+      <c r="C20" s="32">
         <v>11421.64</v>
       </c>
-      <c r="D20" s="43" t="n">
+      <c r="D20" s="32">
         <v>15850.56</v>
       </c>
-      <c r="E20" s="43" t="n">
+      <c r="E20" s="32">
         <v>415.69</v>
       </c>
-      <c r="F20" s="45" t="n">
+      <c r="F20" s="34">
         <v>6104.26</v>
       </c>
-      <c r="G20" s="45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H20" s="43" t="n">
+      <c r="G20" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="H20" s="32">
         <v>1305.48</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="8" t="inlineStr">
-        <is>
-          <t>17. Pobles del Nord</t>
-        </is>
-      </c>
-      <c r="B21" s="44" t="n">
-        <v>10298.97</v>
-      </c>
-      <c r="C21" s="44" t="n">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="33">
+        <v>10298.969999999999</v>
+      </c>
+      <c r="C21" s="33">
         <v>5157.2</v>
       </c>
-      <c r="D21" s="44" t="n">
+      <c r="D21" s="33">
         <v>3468.93</v>
       </c>
-      <c r="E21" s="44" t="n">
+      <c r="E21" s="33">
         <v>786.67</v>
       </c>
-      <c r="F21" s="35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G21" s="35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H21" s="44" t="n">
+      <c r="F21" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21" s="33">
         <v>886.17</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="5" t="inlineStr">
-        <is>
-          <t>18. Pobles de l'Oest</t>
-        </is>
-      </c>
-      <c r="B22" s="43" t="n">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="32">
         <v>43906.5</v>
       </c>
-      <c r="C22" s="43" t="n">
+      <c r="C22" s="32">
         <v>4099.18</v>
       </c>
-      <c r="D22" s="43" t="n">
+      <c r="D22" s="32">
         <v>36046.29</v>
       </c>
-      <c r="E22" s="43" t="n">
+      <c r="E22" s="32">
         <v>174.36</v>
       </c>
-      <c r="F22" s="45" t="n">
+      <c r="F22" s="34">
         <v>227.14</v>
       </c>
-      <c r="G22" s="45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H22" s="43" t="n">
+      <c r="G22" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="H22" s="32">
         <v>3359.53</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="8" t="inlineStr">
-        <is>
-          <t>19. Pobles del Sud</t>
-        </is>
-      </c>
-      <c r="B23" s="44" t="n">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="33">
         <v>60217.19</v>
       </c>
-      <c r="C23" s="44" t="n">
+      <c r="C23" s="33">
         <v>23265.02</v>
       </c>
-      <c r="D23" s="44" t="n">
+      <c r="D23" s="33">
         <v>14753.27</v>
       </c>
-      <c r="E23" s="44" t="n">
-        <v>260.85</v>
-      </c>
-      <c r="F23" s="35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G23" s="35" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H23" s="44" t="n">
+      <c r="E23" s="33">
+        <v>260.85000000000002</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23" s="33">
         <v>21938.05</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="5" t="inlineStr">
-        <is>
-          <t>Fuera del término municipal</t>
-        </is>
-      </c>
-      <c r="B24" s="43" t="n">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="32">
         <v>39050.28</v>
       </c>
-      <c r="C24" s="45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D24" s="43" t="n">
+      <c r="C24" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="32">
         <v>6294.88</v>
       </c>
-      <c r="E24" s="43" t="n">
+      <c r="E24" s="32">
         <v>1831.12</v>
       </c>
-      <c r="F24" s="45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G24" s="45" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H24" s="43" t="n">
+      <c r="F24" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24" s="32">
         <v>30924.28</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="18" t="inlineStr">
-        <is>
-          <t>Nota: Superficie expresada en metros cuadrados</t>
-        </is>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="18" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Patrimonio. Ayuntamiento de València</t>
-        </is>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="18" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja6">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:I26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="22.7109375" customWidth="1" min="1" max="1"/>
-    <col width="16.28515625" customWidth="1" min="2" max="8"/>
-    <col width="15.28515625" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="8" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>5. Valor de los edificios según tipo por distrito. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n"/>
-      <c r="C1" s="3" t="n"/>
-      <c r="D1" s="5" t="n"/>
-      <c r="E1" s="5" t="n"/>
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
-    <row r="3" ht="33" customHeight="1">
-      <c r="A3" s="30" t="n"/>
-      <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="inlineStr">
-        <is>
-          <t>Centros escolares municipales</t>
-        </is>
-      </c>
-      <c r="D3" s="12" t="inlineStr">
-        <is>
-          <t>Edificios y locales públicos</t>
-        </is>
-      </c>
-      <c r="E3" s="12" t="inlineStr">
-        <is>
-          <t>Fincas urbanas</t>
-        </is>
-      </c>
-      <c r="F3" s="12" t="inlineStr">
-        <is>
-          <t>Mercados</t>
-        </is>
-      </c>
-      <c r="G3" s="12" t="inlineStr">
-        <is>
-          <t>Suelo edificable</t>
-        </is>
-      </c>
-      <c r="H3" s="12" t="inlineStr">
-        <is>
-          <t>Otros</t>
-        </is>
+    <row r="3" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="30"/>
+      <c r="B3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="27" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="58" t="n">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="39">
         <v>1812433800.45</v>
       </c>
-      <c r="C4" s="58" t="n">
-        <v>266937559.8</v>
-      </c>
-      <c r="D4" s="58" t="n">
-        <v>531207733.72</v>
-      </c>
-      <c r="E4" s="58" t="n">
-        <v>65134641.61</v>
-      </c>
-      <c r="F4" s="54" t="n">
-        <v>60777367.55</v>
-      </c>
-      <c r="G4" s="58" t="n">
-        <v>475421777.36</v>
-      </c>
-      <c r="H4" s="58" t="n">
-        <v>412954720.41</v>
-      </c>
-      <c r="I4" s="20" t="n"/>
+      <c r="C4" s="39">
+        <v>266937559.80000001</v>
+      </c>
+      <c r="D4" s="39">
+        <v>531207733.72000003</v>
+      </c>
+      <c r="E4" s="39">
+        <v>65134641.609999999</v>
+      </c>
+      <c r="F4" s="54">
+        <v>60777367.549999997</v>
+      </c>
+      <c r="G4" s="39">
+        <v>475421777.36000001</v>
+      </c>
+      <c r="H4" s="39">
+        <v>412954720.41000003</v>
+      </c>
+      <c r="I4" s="20"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. Ciutat Vella</t>
-        </is>
-      </c>
-      <c r="B5" s="47" t="n">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="9">
         <v>170908352.31</v>
       </c>
-      <c r="C5" s="47" t="n">
+      <c r="C5" s="9">
         <v>4660999.24</v>
       </c>
-      <c r="D5" s="47" t="n">
-        <v>55497892.26</v>
-      </c>
-      <c r="E5" s="47" t="n">
-        <v>18171153.92</v>
-      </c>
-      <c r="F5" s="37" t="n">
-        <v>45394141.7</v>
-      </c>
-      <c r="G5" s="47" t="n">
+      <c r="D5" s="9">
+        <v>55497892.259999998</v>
+      </c>
+      <c r="E5" s="9">
+        <v>18171153.920000002</v>
+      </c>
+      <c r="F5" s="37">
+        <v>45394141.700000003</v>
+      </c>
+      <c r="G5" s="9">
         <v>12425703.42</v>
       </c>
-      <c r="H5" s="47" t="n">
-        <v>34758461.77</v>
+      <c r="H5" s="9">
+        <v>34758461.770000003</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2. l'Eixample</t>
-        </is>
-      </c>
-      <c r="B6" s="49" t="n">
-        <v>94461243.14</v>
-      </c>
-      <c r="C6" s="49" t="n">
-        <v>2560623.82</v>
-      </c>
-      <c r="D6" s="49" t="n">
-        <v>52263060.55</v>
-      </c>
-      <c r="E6" s="49" t="n">
-        <v>301789.66</v>
-      </c>
-      <c r="F6" s="48" t="n">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="7">
+        <v>94461243.140000001</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2560623.8199999998</v>
+      </c>
+      <c r="D6" s="7">
+        <v>52263060.549999997</v>
+      </c>
+      <c r="E6" s="7">
+        <v>301789.65999999997</v>
+      </c>
+      <c r="F6" s="36">
         <v>2849037.78</v>
       </c>
-      <c r="G6" s="49" t="n">
-        <v>13177672.88</v>
-      </c>
-      <c r="H6" s="49" t="n">
-        <v>23309058.45</v>
+      <c r="G6" s="7">
+        <v>13177672.880000001</v>
+      </c>
+      <c r="H6" s="7">
+        <v>23309058.449999999</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3. Extramurs</t>
-        </is>
-      </c>
-      <c r="B7" s="47" t="n">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="9">
         <v>27323427.91</v>
       </c>
-      <c r="C7" s="47" t="n">
+      <c r="C7" s="9">
         <v>4230398.37</v>
       </c>
-      <c r="D7" s="47" t="n">
+      <c r="D7" s="9">
         <v>13140499.85</v>
       </c>
-      <c r="E7" s="47" t="n">
+      <c r="E7" s="9">
         <v>1014200.09</v>
       </c>
-      <c r="F7" s="37" t="n">
+      <c r="F7" s="37">
         <v>2745840.95</v>
       </c>
-      <c r="G7" s="47" t="n">
+      <c r="G7" s="9">
         <v>1506998.28</v>
       </c>
-      <c r="H7" s="47" t="n">
+      <c r="H7" s="9">
         <v>4685490.37</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4. Campanar</t>
-        </is>
-      </c>
-      <c r="B8" s="49" t="n">
-        <v>66268623.9</v>
-      </c>
-      <c r="C8" s="49" t="n">
-        <v>9795343.800000001</v>
-      </c>
-      <c r="D8" s="49" t="n">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="7">
+        <v>66268623.899999999</v>
+      </c>
+      <c r="C8" s="7">
+        <v>9795343.8000000007</v>
+      </c>
+      <c r="D8" s="7">
         <v>25008661.91</v>
       </c>
-      <c r="E8" s="49" t="n">
+      <c r="E8" s="7">
         <v>2619660.66</v>
       </c>
-      <c r="F8" s="48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G8" s="49" t="n">
-        <v>22247661.47</v>
-      </c>
-      <c r="H8" s="49" t="n">
-        <v>6597296.06</v>
+      <c r="F8" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="G8" s="7">
+        <v>22247661.469999999</v>
+      </c>
+      <c r="H8" s="7">
+        <v>6597296.0599999996</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5. la Saïdia</t>
-        </is>
-      </c>
-      <c r="B9" s="47" t="n">
-        <v>43513532.8</v>
-      </c>
-      <c r="C9" s="47" t="n">
-        <v>13832530.14</v>
-      </c>
-      <c r="D9" s="47" t="n">
-        <v>13001931.62</v>
-      </c>
-      <c r="E9" s="47" t="n">
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="9">
+        <v>43513532.799999997</v>
+      </c>
+      <c r="C9" s="9">
+        <v>13832530.140000001</v>
+      </c>
+      <c r="D9" s="9">
+        <v>13001931.619999999</v>
+      </c>
+      <c r="E9" s="9">
         <v>1484654.04</v>
       </c>
-      <c r="F9" s="37" t="n">
-        <v>37443.05</v>
-      </c>
-      <c r="G9" s="47" t="n">
-        <v>6225927.53</v>
-      </c>
-      <c r="H9" s="47" t="n">
-        <v>8931046.42</v>
+      <c r="F9" s="37">
+        <v>37443.050000000003</v>
+      </c>
+      <c r="G9" s="9">
+        <v>6225927.5300000003</v>
+      </c>
+      <c r="H9" s="9">
+        <v>8931046.4199999999</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6. el Pla del Real</t>
-        </is>
-      </c>
-      <c r="B10" s="49" t="n">
-        <v>137775028.46</v>
-      </c>
-      <c r="C10" s="49" t="n">
-        <v>8658036.369999999</v>
-      </c>
-      <c r="D10" s="49" t="n">
-        <v>97411319.23</v>
-      </c>
-      <c r="E10" s="49" t="n">
-        <v>23191767.97</v>
-      </c>
-      <c r="F10" s="48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G10" s="49" t="n">
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="7">
+        <v>137775028.46000001</v>
+      </c>
+      <c r="C10" s="7">
+        <v>8658036.3699999992</v>
+      </c>
+      <c r="D10" s="7">
+        <v>97411319.230000004</v>
+      </c>
+      <c r="E10" s="7">
+        <v>23191767.969999999</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="7">
         <v>1146968.8</v>
       </c>
-      <c r="H10" s="49" t="n">
-        <v>7366936.09</v>
+      <c r="H10" s="7">
+        <v>7366936.0899999999</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7. l'Olivereta</t>
-        </is>
-      </c>
-      <c r="B11" s="47" t="n">
-        <v>61963572.24</v>
-      </c>
-      <c r="C11" s="47" t="n">
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="9">
+        <v>61963572.240000002</v>
+      </c>
+      <c r="C11" s="9">
         <v>12380166.1</v>
       </c>
-      <c r="D11" s="47" t="n">
-        <v>30584011.62</v>
-      </c>
-      <c r="E11" s="47" t="n">
+      <c r="D11" s="9">
+        <v>30584011.620000001</v>
+      </c>
+      <c r="E11" s="9">
         <v>888753.91</v>
       </c>
-      <c r="F11" s="37" t="n">
+      <c r="F11" s="37">
         <v>1703027.9</v>
       </c>
-      <c r="G11" s="47" t="n">
-        <v>8892473.890000001</v>
-      </c>
-      <c r="H11" s="47" t="n">
-        <v>7515138.82</v>
+      <c r="G11" s="9">
+        <v>8892473.8900000006</v>
+      </c>
+      <c r="H11" s="9">
+        <v>7515138.8200000003</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8. Patraix</t>
-        </is>
-      </c>
-      <c r="B12" s="49" t="n">
-        <v>74055999.89</v>
-      </c>
-      <c r="C12" s="49" t="n">
-        <v>18127703.31</v>
-      </c>
-      <c r="D12" s="49" t="n">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="7">
+        <v>74055999.890000001</v>
+      </c>
+      <c r="C12" s="7">
+        <v>18127703.309999999</v>
+      </c>
+      <c r="D12" s="7">
         <v>14975803.66</v>
       </c>
-      <c r="E12" s="49" t="n">
+      <c r="E12" s="7">
         <v>499216.71</v>
       </c>
-      <c r="F12" s="48" t="n">
+      <c r="F12" s="36">
         <v>596779.99</v>
       </c>
-      <c r="G12" s="49" t="n">
-        <v>22185692.51</v>
-      </c>
-      <c r="H12" s="49" t="n">
-        <v>17670803.71</v>
+      <c r="G12" s="7">
+        <v>22185692.510000002</v>
+      </c>
+      <c r="H12" s="7">
+        <v>17670803.710000001</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9. Jesús</t>
-        </is>
-      </c>
-      <c r="B13" s="47" t="n">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="9">
         <v>117300390.61</v>
       </c>
-      <c r="C13" s="47" t="n">
-        <v>6878281.94</v>
-      </c>
-      <c r="D13" s="47" t="n">
+      <c r="C13" s="9">
+        <v>6878281.9400000004</v>
+      </c>
+      <c r="D13" s="9">
         <v>15243706.41</v>
       </c>
-      <c r="E13" s="47" t="n">
+      <c r="E13" s="9">
         <v>1103510.98</v>
       </c>
-      <c r="F13" s="37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G13" s="47" t="n">
+      <c r="F13" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="9">
         <v>11616952.5</v>
       </c>
-      <c r="H13" s="47" t="n">
-        <v>82457938.78</v>
+      <c r="H13" s="9">
+        <v>82457938.780000001</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="5" t="inlineStr">
-        <is>
-          <t>10. Quatre Carreres</t>
-        </is>
-      </c>
-      <c r="B14" s="49" t="n">
-        <v>288513729.66</v>
-      </c>
-      <c r="C14" s="49" t="n">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="7">
+        <v>288513729.66000003</v>
+      </c>
+      <c r="C14" s="7">
         <v>18373097.66</v>
       </c>
-      <c r="D14" s="49" t="n">
+      <c r="D14" s="7">
         <v>14148947.74</v>
       </c>
-      <c r="E14" s="49" t="n">
+      <c r="E14" s="7">
         <v>692903.95</v>
       </c>
-      <c r="F14" s="48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G14" s="49" t="n">
-        <v>247543923.01</v>
-      </c>
-      <c r="H14" s="49" t="n">
-        <v>7754857.3</v>
+      <c r="F14" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="7">
+        <v>247543923.00999999</v>
+      </c>
+      <c r="H14" s="7">
+        <v>7754857.2999999998</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="8" t="inlineStr">
-        <is>
-          <t>11. Poblats Marítims</t>
-        </is>
-      </c>
-      <c r="B15" s="47" t="n">
-        <v>138175367.24</v>
-      </c>
-      <c r="C15" s="47" t="n">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="9">
+        <v>138175367.24000001</v>
+      </c>
+      <c r="C15" s="9">
         <v>29886896.84</v>
       </c>
-      <c r="D15" s="47" t="n">
+      <c r="D15" s="9">
         <v>59707221.25</v>
       </c>
-      <c r="E15" s="47" t="n">
+      <c r="E15" s="9">
         <v>10520440.58</v>
       </c>
-      <c r="F15" s="37" t="n">
+      <c r="F15" s="37">
         <v>1732745.7</v>
       </c>
-      <c r="G15" s="47" t="n">
-        <v>12648704.72</v>
-      </c>
-      <c r="H15" s="47" t="n">
-        <v>23679358.15</v>
+      <c r="G15" s="9">
+        <v>12648704.720000001</v>
+      </c>
+      <c r="H15" s="9">
+        <v>23679358.149999999</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="5" t="inlineStr">
-        <is>
-          <t>12. Camins al Grau</t>
-        </is>
-      </c>
-      <c r="B16" s="49" t="n">
-        <v>94807756.17</v>
-      </c>
-      <c r="C16" s="49" t="n">
-        <v>26962037.9</v>
-      </c>
-      <c r="D16" s="49" t="n">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B16" s="7">
+        <v>94807756.170000002</v>
+      </c>
+      <c r="C16" s="7">
+        <v>26962037.899999999</v>
+      </c>
+      <c r="D16" s="7">
         <v>22016766.98</v>
       </c>
-      <c r="E16" s="49" t="n">
+      <c r="E16" s="7">
         <v>979696.13</v>
       </c>
-      <c r="F16" s="48" t="n">
+      <c r="F16" s="36">
         <v>1058502.52</v>
       </c>
-      <c r="G16" s="49" t="n">
-        <v>25145205.74</v>
-      </c>
-      <c r="H16" s="49" t="n">
-        <v>18645546.9</v>
+      <c r="G16" s="7">
+        <v>25145205.739999998</v>
+      </c>
+      <c r="H16" s="7">
+        <v>18645546.899999999</v>
       </c>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="8" t="inlineStr">
-        <is>
-          <t>13. Algirós</t>
-        </is>
-      </c>
-      <c r="B17" s="47" t="n">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="9">
         <v>97121234</v>
       </c>
-      <c r="C17" s="47" t="n">
-        <v>53091428.54</v>
-      </c>
-      <c r="D17" s="47" t="n">
+      <c r="C17" s="9">
+        <v>53091428.539999999</v>
+      </c>
+      <c r="D17" s="9">
         <v>10306362.07</v>
       </c>
-      <c r="E17" s="47" t="n">
+      <c r="E17" s="9">
         <v>403424.94</v>
       </c>
-      <c r="F17" s="37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G17" s="47" t="n">
-        <v>8590237.01</v>
-      </c>
-      <c r="H17" s="47" t="n">
-        <v>24729781.44</v>
+      <c r="F17" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" s="9">
+        <v>8590237.0099999998</v>
+      </c>
+      <c r="H17" s="9">
+        <v>24729781.440000001</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="5" t="inlineStr">
-        <is>
-          <t>14. Benimaclet</t>
-        </is>
-      </c>
-      <c r="B18" s="49" t="n">
-        <v>25276534.58</v>
-      </c>
-      <c r="C18" s="49" t="n">
-        <v>14723419.96</v>
-      </c>
-      <c r="D18" s="49" t="n">
-        <v>5856766.92</v>
-      </c>
-      <c r="E18" s="49" t="n">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="7">
+        <v>25276534.579999998</v>
+      </c>
+      <c r="C18" s="7">
+        <v>14723419.960000001</v>
+      </c>
+      <c r="D18" s="7">
+        <v>5856766.9199999999</v>
+      </c>
+      <c r="E18" s="7">
         <v>798474.05</v>
       </c>
-      <c r="F18" s="48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G18" s="49" t="n">
+      <c r="F18" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" s="7">
         <v>3295041.65</v>
       </c>
-      <c r="H18" s="49" t="n">
+      <c r="H18" s="7">
         <v>602832</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="8" t="inlineStr">
-        <is>
-          <t>15. Rascanya</t>
-        </is>
-      </c>
-      <c r="B19" s="47" t="n">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="9">
         <v>44778503.18</v>
       </c>
-      <c r="C19" s="47" t="n">
-        <v>9475499.99</v>
-      </c>
-      <c r="D19" s="47" t="n">
-        <v>17358418.4</v>
-      </c>
-      <c r="E19" s="47" t="n">
+      <c r="C19" s="9">
+        <v>9475499.9900000002</v>
+      </c>
+      <c r="D19" s="9">
+        <v>17358418.399999999</v>
+      </c>
+      <c r="E19" s="9">
         <v>344907.63</v>
       </c>
-      <c r="F19" s="37" t="n">
+      <c r="F19" s="37">
         <v>932289.98</v>
       </c>
-      <c r="G19" s="47" t="n">
-        <v>16423635.55</v>
-      </c>
-      <c r="H19" s="47" t="n">
+      <c r="G19" s="9">
+        <v>16423635.550000001</v>
+      </c>
+      <c r="H19" s="9">
         <v>243751.63</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="5" t="inlineStr">
-        <is>
-          <t>16. Benicalap</t>
-        </is>
-      </c>
-      <c r="B20" s="49" t="n">
-        <v>79114389.08</v>
-      </c>
-      <c r="C20" s="49" t="n">
-        <v>10531164.95</v>
-      </c>
-      <c r="D20" s="49" t="n">
-        <v>22226202.97</v>
-      </c>
-      <c r="E20" s="49" t="n">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="7">
+        <v>79114389.079999998</v>
+      </c>
+      <c r="C20" s="7">
+        <v>10531164.949999999</v>
+      </c>
+      <c r="D20" s="7">
+        <v>22226202.969999999</v>
+      </c>
+      <c r="E20" s="7">
         <v>516157.71</v>
       </c>
-      <c r="F20" s="48" t="n">
+      <c r="F20" s="36">
         <v>3438980.44</v>
       </c>
-      <c r="G20" s="49" t="n">
-        <v>42323554.21</v>
-      </c>
-      <c r="H20" s="49" t="n">
-        <v>78328.8</v>
+      <c r="G20" s="7">
+        <v>42323554.210000001</v>
+      </c>
+      <c r="H20" s="7">
+        <v>78328.800000000003</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="8" t="inlineStr">
-        <is>
-          <t>17. Pobles del Nord</t>
-        </is>
-      </c>
-      <c r="B21" s="47" t="n">
-        <v>9178645.98</v>
-      </c>
-      <c r="C21" s="47" t="n">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="9">
+        <v>9178645.9800000004</v>
+      </c>
+      <c r="C21" s="9">
         <v>2894466.65</v>
       </c>
-      <c r="D21" s="47" t="n">
+      <c r="D21" s="9">
         <v>2255656.98</v>
       </c>
-      <c r="E21" s="47" t="n">
+      <c r="E21" s="9">
         <v>487933.7</v>
       </c>
-      <c r="F21" s="37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G21" s="47" t="n">
+      <c r="F21" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="G21" s="9">
         <v>2950280.53</v>
       </c>
-      <c r="H21" s="47" t="n">
+      <c r="H21" s="9">
         <v>590308.12</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="5" t="inlineStr">
-        <is>
-          <t>18. Pobles de l'Oest</t>
-        </is>
-      </c>
-      <c r="B22" s="49" t="n">
-        <v>59304298.41</v>
-      </c>
-      <c r="C22" s="49" t="n">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" s="7">
+        <v>59304298.409999996</v>
+      </c>
+      <c r="C22" s="7">
         <v>1172935.22</v>
       </c>
-      <c r="D22" s="49" t="n">
-        <v>45765917.96</v>
-      </c>
-      <c r="E22" s="49" t="n">
+      <c r="D22" s="7">
+        <v>45765917.960000001</v>
+      </c>
+      <c r="E22" s="7">
         <v>204787.24</v>
       </c>
-      <c r="F22" s="48" t="n">
-        <v>288577.54</v>
-      </c>
-      <c r="G22" s="49" t="n">
-        <v>8259473.17</v>
-      </c>
-      <c r="H22" s="49" t="n">
+      <c r="F22" s="36">
+        <v>288577.53999999998</v>
+      </c>
+      <c r="G22" s="7">
+        <v>8259473.1699999999</v>
+      </c>
+      <c r="H22" s="7">
         <v>3612607.28</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="8" t="inlineStr">
-        <is>
-          <t>19. Pobles del Sud</t>
-        </is>
-      </c>
-      <c r="B23" s="47" t="n">
-        <v>52861024.81</v>
-      </c>
-      <c r="C23" s="47" t="n">
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="9">
+        <v>52861024.810000002</v>
+      </c>
+      <c r="C23" s="9">
         <v>18702529</v>
       </c>
-      <c r="D23" s="47" t="n">
-        <v>12359023.36</v>
-      </c>
-      <c r="E23" s="47" t="n">
+      <c r="D23" s="9">
+        <v>12359023.359999999</v>
+      </c>
+      <c r="E23" s="9">
         <v>209144.85</v>
       </c>
-      <c r="F23" s="37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G23" s="47" t="n">
-        <v>7557940.49</v>
-      </c>
-      <c r="H23" s="47" t="n">
-        <v>14032387.11</v>
+      <c r="F23" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="G23" s="9">
+        <v>7557940.4900000002</v>
+      </c>
+      <c r="H23" s="9">
+        <v>14032387.109999999</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="5" t="inlineStr">
-        <is>
-          <t>Fuera del término municipal</t>
-        </is>
-      </c>
-      <c r="B24" s="49" t="n">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="7">
         <v>129732146.08</v>
       </c>
-      <c r="C24" s="48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D24" s="49" t="n">
+      <c r="C24" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="7">
         <v>2079561.98</v>
       </c>
-      <c r="E24" s="49" t="n">
+      <c r="E24" s="7">
         <v>702062.89</v>
       </c>
-      <c r="F24" s="48" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G24" s="49" t="n">
+      <c r="F24" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="7">
         <v>1257730</v>
       </c>
-      <c r="H24" s="49" t="n">
-        <v>125692791.21</v>
+      <c r="H24" s="7">
+        <v>125692791.20999999</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="18" t="inlineStr">
-        <is>
-          <t>Nota: Valor expresado en euros</t>
-        </is>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="18" t="s">
+        <v>134</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="18" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Patrimonio. Ayuntamiento de València</t>
-        </is>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="18" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja7">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:E112"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="30" customWidth="1" style="5" min="1" max="1"/>
-    <col width="7.28515625" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
-    <col width="14" customWidth="1" style="5" min="3" max="4"/>
-    <col width="16.140625" customWidth="1" style="5" min="5" max="5"/>
-    <col width="11.42578125" customWidth="1" style="5" min="6" max="16384"/>
+    <col min="1" max="1" width="30" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>6. Superficie de la parcela, superficie construida y valor de los edificios por barrio. 2023</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="n"/>
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="3"/>
     </row>
-    <row r="2">
-      <c r="B2" s="57" t="n"/>
-      <c r="C2" s="57" t="n"/>
-      <c r="D2" s="57" t="n"/>
-      <c r="E2" s="57" t="n"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
-    <row r="3" ht="25.5" customHeight="1">
-      <c r="A3" s="30" t="inlineStr">
-        <is>
-          <t>Barrios</t>
-        </is>
-      </c>
-      <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t>Número</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="inlineStr">
-        <is>
-          <t>Superficie de la parcela</t>
-        </is>
-      </c>
-      <c r="D3" s="12" t="inlineStr">
-        <is>
-          <t>Superficie construida</t>
-        </is>
-      </c>
-      <c r="E3" s="10" t="inlineStr">
-        <is>
-          <t>Valor</t>
-        </is>
+    <row r="3" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>129</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="27" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="55" t="n">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="55">
         <v>1137</v>
       </c>
-      <c r="C4" s="55" t="n">
+      <c r="C4" s="55">
         <v>3067393.93</v>
       </c>
-      <c r="D4" s="55" t="n">
+      <c r="D4" s="55">
         <v>1224042.44</v>
       </c>
-      <c r="E4" s="55" t="n">
+      <c r="E4" s="55">
         <v>1812433800.45</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. Ciutat Vella</t>
-        </is>
-      </c>
-      <c r="B5" s="31" t="n"/>
-      <c r="C5" s="44" t="n"/>
-      <c r="D5" s="44" t="n"/>
-      <c r="E5" s="47" t="n"/>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="46"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    1. la Seu</t>
-        </is>
-      </c>
-      <c r="B6" s="57" t="n">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="29">
         <v>16</v>
       </c>
-      <c r="C6" s="43" t="n">
-        <v>10361.28</v>
-      </c>
-      <c r="D6" s="43" t="n">
+      <c r="C6" s="43">
+        <v>10361.280000000001</v>
+      </c>
+      <c r="D6" s="43">
         <v>23046.73</v>
       </c>
-      <c r="E6" s="49" t="n">
-        <v>19591227.33</v>
+      <c r="E6" s="28">
+        <v>19591227.329999998</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    2. la Xerea</t>
-        </is>
-      </c>
-      <c r="B7" s="31" t="n">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="24">
         <v>8</v>
       </c>
-      <c r="C7" s="44" t="n">
+      <c r="C7" s="42">
         <v>3422.64</v>
       </c>
-      <c r="D7" s="44" t="n">
+      <c r="D7" s="42">
         <v>18118.73</v>
       </c>
-      <c r="E7" s="47" t="n">
-        <v>19367272.2</v>
+      <c r="E7" s="46">
+        <v>19367272.199999999</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    3. el Carme</t>
-        </is>
-      </c>
-      <c r="B8" s="57" t="n">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="29">
         <v>77</v>
       </c>
-      <c r="C8" s="43" t="n">
+      <c r="C8" s="43">
         <v>25673.98</v>
       </c>
-      <c r="D8" s="43" t="n">
+      <c r="D8" s="43">
         <v>40016.15</v>
       </c>
-      <c r="E8" s="49" t="n">
-        <v>39964377.52</v>
+      <c r="E8" s="28">
+        <v>39964377.520000003</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    4. el Pilar</t>
-        </is>
-      </c>
-      <c r="B9" s="31" t="n">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="24">
         <v>15</v>
       </c>
-      <c r="C9" s="44" t="n">
+      <c r="C9" s="42">
         <v>8159.44</v>
       </c>
-      <c r="D9" s="44" t="n">
+      <c r="D9" s="42">
         <v>17445.37</v>
       </c>
-      <c r="E9" s="47" t="n">
+      <c r="E9" s="46">
         <v>21923486.75</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    5. el Mercat</t>
-        </is>
-      </c>
-      <c r="B10" s="57" t="n">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="29">
         <v>15</v>
       </c>
-      <c r="C10" s="43" t="n">
+      <c r="C10" s="43">
         <v>14239.42</v>
       </c>
-      <c r="D10" s="43" t="n">
+      <c r="D10" s="43">
         <v>24972.07</v>
       </c>
-      <c r="E10" s="49" t="n">
-        <v>48966739.92</v>
+      <c r="E10" s="28">
+        <v>48966739.920000002</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    6. Sant Francesc</t>
-        </is>
-      </c>
-      <c r="B11" s="31" t="n">
+    <row r="11" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="24">
         <v>9</v>
       </c>
-      <c r="C11" s="44" t="n">
+      <c r="C11" s="42">
         <v>7999.13</v>
       </c>
-      <c r="D11" s="44" t="n">
+      <c r="D11" s="42">
         <v>25575.13</v>
       </c>
-      <c r="E11" s="47" t="n">
+      <c r="E11" s="46">
         <v>21095248.59</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2. l'Eixample</t>
-        </is>
-      </c>
-      <c r="B12" s="57" t="n"/>
-      <c r="C12" s="43" t="n"/>
-      <c r="D12" s="43" t="n"/>
-      <c r="E12" s="49" t="n"/>
+    <row r="12" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="29"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="28"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    1. Russafa</t>
-        </is>
-      </c>
-      <c r="B13" s="31" t="n">
+    <row r="13" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="24">
         <v>20</v>
       </c>
-      <c r="C13" s="44" t="n">
+      <c r="C13" s="42">
         <v>27453.91</v>
       </c>
-      <c r="D13" s="44" t="n">
+      <c r="D13" s="42">
         <v>28467.69</v>
       </c>
-      <c r="E13" s="47" t="n">
-        <v>26463778.96</v>
+      <c r="E13" s="46">
+        <v>26463778.960000001</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    2. el Pla del Remei</t>
-        </is>
-      </c>
-      <c r="B14" s="57" t="n">
+    <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="29">
         <v>4</v>
       </c>
-      <c r="C14" s="43" t="n">
-        <v>8525.719999999999</v>
-      </c>
-      <c r="D14" s="43" t="n">
+      <c r="C14" s="43">
+        <v>8525.7199999999993</v>
+      </c>
+      <c r="D14" s="43">
         <v>28750.42</v>
       </c>
-      <c r="E14" s="49" t="n">
-        <v>51715570.44</v>
+      <c r="E14" s="28">
+        <v>51715570.439999998</v>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    3. Gran Via</t>
-        </is>
-      </c>
-      <c r="B15" s="31" t="n">
+    <row r="15" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="24">
         <v>5</v>
       </c>
-      <c r="C15" s="44" t="n">
+      <c r="C15" s="42">
         <v>4475.07</v>
       </c>
-      <c r="D15" s="44" t="n">
-        <v>21040.88</v>
-      </c>
-      <c r="E15" s="47" t="n">
+      <c r="D15" s="42">
+        <v>21040.880000000001</v>
+      </c>
+      <c r="E15" s="46">
         <v>16281893.74</v>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3. Extramurs</t>
-        </is>
-      </c>
-      <c r="B16" s="57" t="n"/>
-      <c r="C16" s="43" t="n"/>
-      <c r="D16" s="43" t="n"/>
-      <c r="E16" s="49" t="n"/>
+    <row r="16" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="29"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="28"/>
     </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    1. el Botànic</t>
-        </is>
-      </c>
-      <c r="B17" s="31" t="n">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="24">
         <v>7</v>
       </c>
-      <c r="C17" s="44" t="n">
+      <c r="C17" s="42">
         <v>7575.12</v>
       </c>
-      <c r="D17" s="44" t="n">
+      <c r="D17" s="42">
         <v>14611.84</v>
       </c>
-      <c r="E17" s="47" t="n">
+      <c r="E17" s="46">
         <v>4893258.93</v>
       </c>
     </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    2. la Roqueta</t>
-        </is>
-      </c>
-      <c r="B18" s="57" t="n">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="29">
         <v>10</v>
       </c>
-      <c r="C18" s="43" t="n">
+      <c r="C18" s="43">
         <v>2345.12</v>
       </c>
-      <c r="D18" s="43" t="n">
+      <c r="D18" s="43">
         <v>2029.01</v>
       </c>
-      <c r="E18" s="49" t="n">
+      <c r="E18" s="28">
         <v>4277141.32</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    3. la Petxina</t>
-        </is>
-      </c>
-      <c r="B19" s="31" t="n">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="24">
         <v>4</v>
       </c>
-      <c r="C19" s="44" t="n">
+      <c r="C19" s="42">
         <v>17213.61</v>
       </c>
-      <c r="D19" s="44" t="n">
-        <v>16930.6</v>
-      </c>
-      <c r="E19" s="47" t="n">
-        <v>5609510.61</v>
+      <c r="D19" s="42">
+        <v>16930.599999999999</v>
+      </c>
+      <c r="E19" s="46">
+        <v>5609510.6100000003</v>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    4. Arrancapins</t>
-        </is>
-      </c>
-      <c r="B20" s="57" t="n">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="29">
         <v>5</v>
       </c>
-      <c r="C20" s="43" t="n">
+      <c r="C20" s="43">
         <v>29665.63</v>
       </c>
-      <c r="D20" s="43" t="n">
+      <c r="D20" s="43">
         <v>21037.34</v>
       </c>
-      <c r="E20" s="49" t="n">
-        <v>12543517.05</v>
+      <c r="E20" s="28">
+        <v>12543517.050000001</v>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4. Campanar</t>
-        </is>
-      </c>
-      <c r="B21" s="31" t="n"/>
-      <c r="C21" s="44" t="n"/>
-      <c r="D21" s="44" t="n"/>
-      <c r="E21" s="47" t="n"/>
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="46"/>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    1. Campanar</t>
-        </is>
-      </c>
-      <c r="B22" s="57" t="n">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="29">
         <v>20</v>
       </c>
-      <c r="C22" s="43" t="n">
+      <c r="C22" s="43">
         <v>17362.57</v>
       </c>
-      <c r="D22" s="43" t="n">
-        <v>19508.42</v>
-      </c>
-      <c r="E22" s="49" t="n">
+      <c r="D22" s="43">
+        <v>19508.419999999998</v>
+      </c>
+      <c r="E22" s="28">
         <v>12292824.23</v>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    2. les Tendetes</t>
-        </is>
-      </c>
-      <c r="B23" s="31" t="n">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="24">
         <v>4</v>
       </c>
-      <c r="C23" s="44" t="n">
+      <c r="C23" s="42">
         <v>2954.83</v>
       </c>
-      <c r="D23" s="44" t="n">
+      <c r="D23" s="42">
         <v>830.34</v>
       </c>
-      <c r="E23" s="47" t="n">
+      <c r="E23" s="46">
         <v>1316831.74</v>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    3. el Calvari</t>
-        </is>
-      </c>
-      <c r="B24" s="57" t="n">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="29">
         <v>1</v>
       </c>
-      <c r="C24" s="43" t="n">
+      <c r="C24" s="43">
         <v>97</v>
       </c>
-      <c r="D24" s="43" t="n">
+      <c r="D24" s="43">
         <v>97</v>
       </c>
-      <c r="E24" s="49" t="n">
-        <v>40789.44</v>
+      <c r="E24" s="28">
+        <v>40789.440000000002</v>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    4. Sant Pau</t>
-        </is>
-      </c>
-      <c r="B25" s="31" t="n">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="24">
         <v>26</v>
       </c>
-      <c r="C25" s="44" t="n">
+      <c r="C25" s="42">
         <v>101552.46</v>
       </c>
-      <c r="D25" s="44" t="n">
-        <v>20376.69</v>
-      </c>
-      <c r="E25" s="47" t="n">
-        <v>52618178.49</v>
+      <c r="D25" s="42">
+        <v>20376.689999999999</v>
+      </c>
+      <c r="E25" s="46">
+        <v>52618178.490000002</v>
       </c>
     </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5. la Saïdia</t>
-        </is>
-      </c>
-      <c r="B26" s="57" t="n"/>
-      <c r="C26" s="43" t="n"/>
-      <c r="D26" s="43" t="n"/>
-      <c r="E26" s="49" t="n"/>
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="29"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="28"/>
     </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    1. Marxalenes</t>
-        </is>
-      </c>
-      <c r="B27" s="31" t="n">
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="24">
         <v>12</v>
       </c>
-      <c r="C27" s="44" t="n">
+      <c r="C27" s="42">
         <v>10648.57</v>
       </c>
-      <c r="D27" s="44" t="n">
+      <c r="D27" s="42">
         <v>6279.43</v>
       </c>
-      <c r="E27" s="47" t="n">
-        <v>9648127.58</v>
+      <c r="E27" s="46">
+        <v>9648127.5800000001</v>
       </c>
     </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    2. Morvedre</t>
-        </is>
-      </c>
-      <c r="B28" s="57" t="n">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="29">
         <v>4</v>
       </c>
-      <c r="C28" s="43" t="n">
+      <c r="C28" s="43">
         <v>7506.85</v>
       </c>
-      <c r="D28" s="43" t="n">
+      <c r="D28" s="43">
         <v>755.16</v>
       </c>
-      <c r="E28" s="49" t="n">
-        <v>4985745.02</v>
+      <c r="E28" s="28">
+        <v>4985745.0199999996</v>
       </c>
     </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    3. Trinitat</t>
-        </is>
-      </c>
-      <c r="B29" s="31" t="n">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="24">
         <v>30</v>
       </c>
-      <c r="C29" s="44" t="n">
+      <c r="C29" s="42">
         <v>15170.58</v>
       </c>
-      <c r="D29" s="44" t="n">
+      <c r="D29" s="42">
         <v>12709.21</v>
       </c>
-      <c r="E29" s="47" t="n">
-        <v>6016904.28</v>
+      <c r="E29" s="46">
+        <v>6016904.2800000003</v>
       </c>
     </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    4. Tormos</t>
-        </is>
-      </c>
-      <c r="B30" s="57" t="n">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="29">
         <v>22</v>
       </c>
-      <c r="C30" s="43" t="n">
+      <c r="C30" s="43">
         <v>13306.55</v>
       </c>
-      <c r="D30" s="43" t="n">
+      <c r="D30" s="43">
         <v>5276.6</v>
       </c>
-      <c r="E30" s="49" t="n">
-        <v>5356811.77</v>
+      <c r="E30" s="28">
+        <v>5356811.7699999996</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    5. Sant Antoni</t>
-        </is>
-      </c>
-      <c r="B31" s="31" t="n">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="24">
         <v>4</v>
       </c>
-      <c r="C31" s="44" t="n">
-        <v>9617.719999999999</v>
-      </c>
-      <c r="D31" s="44" t="n">
+      <c r="C31" s="42">
+        <v>9617.7199999999993</v>
+      </c>
+      <c r="D31" s="42">
         <v>12835.56</v>
       </c>
-      <c r="E31" s="47" t="n">
-        <v>17505944.15</v>
+      <c r="E31" s="46">
+        <v>17505944.149999999</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6. el Pla del Real</t>
-        </is>
-      </c>
-      <c r="B32" s="57" t="n"/>
-      <c r="C32" s="43" t="n"/>
-      <c r="D32" s="43" t="n"/>
-      <c r="E32" s="49" t="n"/>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="29"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="28"/>
     </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    1. Exposició</t>
-        </is>
-      </c>
-      <c r="B33" s="31" t="n">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="24">
         <v>9</v>
       </c>
-      <c r="C33" s="44" t="n">
+      <c r="C33" s="42">
         <v>19417.13</v>
       </c>
-      <c r="D33" s="44" t="n">
+      <c r="D33" s="42">
         <v>47648.06</v>
       </c>
-      <c r="E33" s="47" t="n">
-        <v>89938226.27</v>
+      <c r="E33" s="46">
+        <v>89938226.269999996</v>
       </c>
     </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    2. Mestalla</t>
-        </is>
-      </c>
-      <c r="B34" s="57" t="n">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="29">
         <v>17</v>
       </c>
-      <c r="C34" s="43" t="n">
+      <c r="C34" s="43">
         <v>25717.29</v>
       </c>
-      <c r="D34" s="43" t="n">
+      <c r="D34" s="43">
         <v>48678.27</v>
       </c>
-      <c r="E34" s="49" t="n">
-        <v>47717214.56</v>
+      <c r="E34" s="28">
+        <v>47717214.560000002</v>
       </c>
     </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    4. Ciutat Universitària</t>
-        </is>
-      </c>
-      <c r="B35" s="31" t="n">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="24">
         <v>2</v>
       </c>
-      <c r="C35" s="44" t="n">
+      <c r="C35" s="42">
         <v>90.81</v>
       </c>
-      <c r="D35" s="44" t="n">
+      <c r="D35" s="42">
         <v>90.81</v>
       </c>
-      <c r="E35" s="47" t="n">
+      <c r="E35" s="46">
         <v>119587.63</v>
       </c>
     </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7. l'Olivereta</t>
-        </is>
-      </c>
-      <c r="B36" s="57" t="n"/>
-      <c r="C36" s="43" t="n"/>
-      <c r="D36" s="43" t="n"/>
-      <c r="E36" s="49" t="n"/>
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="29"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="28"/>
     </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    1. Nou Moles</t>
-        </is>
-      </c>
-      <c r="B37" s="31" t="n">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="24">
         <v>19</v>
       </c>
-      <c r="C37" s="44" t="n">
+      <c r="C37" s="42">
         <v>26653.72</v>
       </c>
-      <c r="D37" s="44" t="n">
+      <c r="D37" s="42">
         <v>22219.58</v>
       </c>
-      <c r="E37" s="47" t="n">
+      <c r="E37" s="46">
         <v>25744921.34</v>
       </c>
     </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    2. Soternes</t>
-        </is>
-      </c>
-      <c r="B38" s="57" t="n">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="29">
         <v>3</v>
       </c>
-      <c r="C38" s="43" t="n">
+      <c r="C38" s="43">
         <v>6446.74</v>
       </c>
-      <c r="D38" s="43" t="n">
+      <c r="D38" s="43">
         <v>4850.7</v>
       </c>
-      <c r="E38" s="49" t="n">
-        <v>6263008.62</v>
+      <c r="E38" s="28">
+        <v>6263008.6200000001</v>
       </c>
     </row>
-    <row r="39" ht="15" customHeight="1">
-      <c r="A39" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    3. Tres Forques</t>
-        </is>
-      </c>
-      <c r="B39" s="31" t="n">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="24">
         <v>26</v>
       </c>
-      <c r="C39" s="44" t="n">
+      <c r="C39" s="42">
         <v>59789.9</v>
       </c>
-      <c r="D39" s="44" t="n">
+      <c r="D39" s="42">
         <v>45417.33</v>
       </c>
-      <c r="E39" s="47" t="n">
+      <c r="E39" s="46">
         <v>22883045.34</v>
       </c>
     </row>
-    <row r="40" ht="15" customHeight="1">
-      <c r="A40" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    4. la Fontsanta</t>
-        </is>
-      </c>
-      <c r="B40" s="57" t="n">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" s="29">
         <v>3</v>
       </c>
-      <c r="C40" s="43" t="n">
+      <c r="C40" s="43">
         <v>1716.97</v>
       </c>
-      <c r="D40" s="43" t="n">
+      <c r="D40" s="43">
         <v>492.07</v>
       </c>
-      <c r="E40" s="49" t="n">
+      <c r="E40" s="28">
         <v>1761221.6</v>
       </c>
     </row>
-    <row r="41" ht="15" customHeight="1">
-      <c r="A41" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    5. la Llum</t>
-        </is>
-      </c>
-      <c r="B41" s="31" t="n">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" s="24">
         <v>4</v>
       </c>
-      <c r="C41" s="44" t="n">
-        <v>4693.52</v>
-      </c>
-      <c r="D41" s="44" t="n">
-        <v>4489.02</v>
-      </c>
-      <c r="E41" s="47" t="n">
+      <c r="C41" s="42">
+        <v>4693.5200000000004</v>
+      </c>
+      <c r="D41" s="42">
+        <v>4489.0200000000004</v>
+      </c>
+      <c r="E41" s="46">
         <v>5311375.34</v>
       </c>
     </row>
-    <row r="42" ht="15" customHeight="1">
-      <c r="A42" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8. Patraix</t>
-        </is>
-      </c>
-      <c r="B42" s="57" t="n"/>
-      <c r="C42" s="43" t="n"/>
-      <c r="D42" s="43" t="n"/>
-      <c r="E42" s="49" t="n"/>
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="29"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="28"/>
     </row>
-    <row r="43" ht="15" customHeight="1">
-      <c r="A43" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    1. Patraix</t>
-        </is>
-      </c>
-      <c r="B43" s="31" t="n">
+    <row r="43" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="24">
         <v>9</v>
       </c>
-      <c r="C43" s="44" t="n">
+      <c r="C43" s="42">
         <v>6340.94</v>
       </c>
-      <c r="D43" s="44" t="n">
+      <c r="D43" s="42">
         <v>6541.89</v>
       </c>
-      <c r="E43" s="47" t="n">
-        <v>10037475.55</v>
+      <c r="E43" s="46">
+        <v>10037475.550000001</v>
       </c>
     </row>
-    <row r="44" ht="15" customHeight="1">
-      <c r="A44" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    2. Sant Isidre</t>
-        </is>
-      </c>
-      <c r="B44" s="57" t="n">
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="29">
         <v>12</v>
       </c>
-      <c r="C44" s="43" t="n">
+      <c r="C44" s="43">
         <v>86409.08</v>
       </c>
-      <c r="D44" s="43" t="n">
-        <v>9646.120000000001</v>
-      </c>
-      <c r="E44" s="49" t="n">
-        <v>16924532.54</v>
+      <c r="D44" s="43">
+        <v>9646.1200000000008</v>
+      </c>
+      <c r="E44" s="28">
+        <v>16924532.539999999</v>
       </c>
     </row>
-    <row r="45" ht="15" customHeight="1">
-      <c r="A45" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    3. Vara de Quart</t>
-        </is>
-      </c>
-      <c r="B45" s="31" t="n">
+    <row r="45" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="24">
         <v>7</v>
       </c>
-      <c r="C45" s="44" t="n">
+      <c r="C45" s="42">
         <v>24534.77</v>
       </c>
-      <c r="D45" s="44" t="n">
+      <c r="D45" s="42">
         <v>28184.81</v>
       </c>
-      <c r="E45" s="47" t="n">
+      <c r="E45" s="46">
         <v>21017671.09</v>
       </c>
     </row>
-    <row r="46" ht="15" customHeight="1">
-      <c r="A46" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    4. Safranar</t>
-        </is>
-      </c>
-      <c r="B46" s="57" t="n">
+    <row r="46" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="29">
         <v>5</v>
       </c>
-      <c r="C46" s="43" t="n">
-        <v>41832.45</v>
-      </c>
-      <c r="D46" s="43" t="n">
+      <c r="C46" s="43">
+        <v>41832.449999999997</v>
+      </c>
+      <c r="D46" s="43">
         <v>11805.07</v>
       </c>
-      <c r="E46" s="49" t="n">
+      <c r="E46" s="28">
         <v>18825213.57</v>
       </c>
     </row>
-    <row r="47" ht="15" customHeight="1">
-      <c r="A47" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    5. Favara</t>
-        </is>
-      </c>
-      <c r="B47" s="31" t="n">
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="24">
         <v>4</v>
       </c>
-      <c r="C47" s="44" t="n">
+      <c r="C47" s="42">
         <v>23913.01</v>
       </c>
-      <c r="D47" s="44" t="n">
+      <c r="D47" s="42">
         <v>1159.54</v>
       </c>
-      <c r="E47" s="47" t="n">
-        <v>7251107.14</v>
+      <c r="E47" s="46">
+        <v>7251107.1399999997</v>
       </c>
     </row>
-    <row r="48" ht="15" customHeight="1">
-      <c r="A48" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9. Jesús</t>
-        </is>
-      </c>
-      <c r="B48" s="57" t="n"/>
-      <c r="C48" s="43" t="n"/>
-      <c r="D48" s="43" t="n"/>
-      <c r="E48" s="49" t="n"/>
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="29"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="28"/>
     </row>
-    <row r="49" ht="15" customHeight="1">
-      <c r="A49" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    1. la Raiosa</t>
-        </is>
-      </c>
-      <c r="B49" s="31" t="n">
+    <row r="49" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="24">
         <v>3</v>
       </c>
-      <c r="C49" s="44" t="n">
+      <c r="C49" s="42">
         <v>1012.5</v>
       </c>
-      <c r="D49" s="44" t="n">
+      <c r="D49" s="42">
         <v>1793.04</v>
       </c>
-      <c r="E49" s="47" t="n">
+      <c r="E49" s="46">
         <v>1649772.15</v>
       </c>
     </row>
-    <row r="50" ht="15" customHeight="1">
-      <c r="A50" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    2. l'Hort de Senabre</t>
-        </is>
-      </c>
-      <c r="B50" s="57" t="n">
+    <row r="50" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" s="29">
         <v>7</v>
       </c>
-      <c r="C50" s="43" t="n">
+      <c r="C50" s="43">
         <v>17501.48</v>
       </c>
-      <c r="D50" s="43" t="n">
+      <c r="D50" s="43">
         <v>8517.5</v>
       </c>
-      <c r="E50" s="49" t="n">
+      <c r="E50" s="28">
         <v>5781329.29</v>
       </c>
     </row>
-    <row r="51" ht="15" customHeight="1">
-      <c r="A51" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    3. la Creu Coberta</t>
-        </is>
-      </c>
-      <c r="B51" s="31" t="n">
+    <row r="51" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" s="24">
         <v>5</v>
       </c>
-      <c r="C51" s="44" t="n">
+      <c r="C51" s="42">
         <v>1657.38</v>
       </c>
-      <c r="D51" s="44" t="n">
+      <c r="D51" s="42">
         <v>1536.2</v>
       </c>
-      <c r="E51" s="47" t="n">
+      <c r="E51" s="46">
         <v>1989109.47</v>
       </c>
     </row>
-    <row r="52" ht="15" customHeight="1">
-      <c r="A52" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    4. Sant Marcel·lí</t>
-        </is>
-      </c>
-      <c r="B52" s="57" t="n">
+    <row r="52" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" s="29">
         <v>7</v>
       </c>
-      <c r="C52" s="43" t="n">
+      <c r="C52" s="43">
         <v>13679.68</v>
       </c>
-      <c r="D52" s="43" t="n">
+      <c r="D52" s="43">
         <v>6962.15</v>
       </c>
-      <c r="E52" s="49" t="n">
+      <c r="E52" s="28">
         <v>10712293.41</v>
       </c>
     </row>
-    <row r="53" ht="15" customHeight="1">
-      <c r="A53" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    5. Camí Real</t>
-        </is>
-      </c>
-      <c r="B53" s="31" t="n">
+    <row r="53" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" s="24">
         <v>8</v>
       </c>
-      <c r="C53" s="44" t="n">
+      <c r="C53" s="42">
         <v>428394.14</v>
       </c>
-      <c r="D53" s="44" t="n">
+      <c r="D53" s="42">
         <v>16162.58</v>
       </c>
-      <c r="E53" s="47" t="n">
-        <v>97167886.29000001</v>
+      <c r="E53" s="46">
+        <v>97167886.290000007</v>
       </c>
     </row>
-    <row r="54" ht="15" customHeight="1">
-      <c r="A54" s="57" t="inlineStr">
-        <is>
-          <t>10. Quatre Carreres</t>
-        </is>
-      </c>
-      <c r="B54" s="57" t="n"/>
-      <c r="C54" s="43" t="n"/>
-      <c r="D54" s="43" t="n"/>
-      <c r="E54" s="49" t="n"/>
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="29"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="28"/>
     </row>
-    <row r="55" ht="15" customHeight="1">
-      <c r="A55" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   1. Mont-Olivet</t>
-        </is>
-      </c>
-      <c r="B55" s="31" t="n">
+    <row r="55" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="24">
         <v>9</v>
       </c>
-      <c r="C55" s="44" t="n">
+      <c r="C55" s="42">
         <v>10031.75</v>
       </c>
-      <c r="D55" s="44" t="n">
+      <c r="D55" s="42">
         <v>13969.17</v>
       </c>
-      <c r="E55" s="47" t="n">
-        <v>5798553.37</v>
+      <c r="E55" s="46">
+        <v>5798553.3700000001</v>
       </c>
     </row>
-    <row r="56" ht="15" customHeight="1">
-      <c r="A56" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   2. En Corts</t>
-        </is>
-      </c>
-      <c r="B56" s="57" t="n">
+    <row r="56" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="29">
         <v>8</v>
       </c>
-      <c r="C56" s="43" t="n">
-        <v>2554.26</v>
-      </c>
-      <c r="D56" s="43" t="n">
+      <c r="C56" s="43">
+        <v>2554.2600000000002</v>
+      </c>
+      <c r="D56" s="43">
         <v>118.35</v>
       </c>
-      <c r="E56" s="49" t="n">
-        <v>7161836.67</v>
+      <c r="E56" s="28">
+        <v>7161836.6699999999</v>
       </c>
     </row>
-    <row r="57" ht="15" customHeight="1">
-      <c r="A57" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   3. Malilla</t>
-        </is>
-      </c>
-      <c r="B57" s="31" t="n">
+    <row r="57" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" s="24">
         <v>27</v>
       </c>
-      <c r="C57" s="44" t="n">
+      <c r="C57" s="42">
         <v>127194.57</v>
       </c>
-      <c r="D57" s="44" t="n">
+      <c r="D57" s="42">
         <v>7464.77</v>
       </c>
-      <c r="E57" s="47" t="n">
-        <v>81284303.43000001</v>
+      <c r="E57" s="46">
+        <v>81284303.430000007</v>
       </c>
     </row>
-    <row r="58" ht="15" customHeight="1">
-      <c r="A58" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   4. Fonteta de Sant Lluís</t>
-        </is>
-      </c>
-      <c r="B58" s="57" t="n">
+    <row r="58" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" s="29">
         <v>6</v>
       </c>
-      <c r="C58" s="43" t="n">
+      <c r="C58" s="43">
         <v>15114.9</v>
       </c>
-      <c r="D58" s="43" t="n">
+      <c r="D58" s="43">
         <v>1667</v>
       </c>
-      <c r="E58" s="49" t="n">
-        <v>6767382.62</v>
+      <c r="E58" s="28">
+        <v>6767382.6200000001</v>
       </c>
     </row>
-    <row r="59" ht="15" customHeight="1">
-      <c r="A59" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   5. na Rovella</t>
-        </is>
-      </c>
-      <c r="B59" s="31" t="n">
+    <row r="59" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" s="24">
         <v>17</v>
       </c>
-      <c r="C59" s="44" t="n">
+      <c r="C59" s="42">
         <v>86628.87</v>
       </c>
-      <c r="D59" s="44" t="n">
+      <c r="D59" s="42">
         <v>30650.97</v>
       </c>
-      <c r="E59" s="47" t="n">
-        <v>45429457.49</v>
+      <c r="E59" s="46">
+        <v>45429457.490000002</v>
       </c>
     </row>
-    <row r="60" ht="15" customHeight="1">
-      <c r="A60" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   6. la Punta</t>
-        </is>
-      </c>
-      <c r="B60" s="57" t="n">
+    <row r="60" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="29">
         <v>31</v>
       </c>
-      <c r="C60" s="43" t="n">
+      <c r="C60" s="43">
         <v>52630.68</v>
       </c>
-      <c r="D60" s="43" t="n">
+      <c r="D60" s="43">
         <v>2543.35</v>
       </c>
-      <c r="E60" s="49" t="n">
-        <v>88638060.13</v>
+      <c r="E60" s="28">
+        <v>88638060.129999995</v>
       </c>
     </row>
-    <row r="61" ht="15" customHeight="1">
-      <c r="A61" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   7. Ciutat de les Arts i de les Ciències</t>
-        </is>
-      </c>
-      <c r="B61" s="31" t="n">
+    <row r="61" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" s="24">
         <v>11</v>
       </c>
-      <c r="C61" s="44" t="n">
+      <c r="C61" s="42">
         <v>47045.18</v>
       </c>
-      <c r="D61" s="44" t="n">
-        <v>2134.01</v>
-      </c>
-      <c r="E61" s="47" t="n">
-        <v>53434135.95</v>
+      <c r="D61" s="42">
+        <v>2134.0100000000002</v>
+      </c>
+      <c r="E61" s="46">
+        <v>53434135.950000003</v>
       </c>
     </row>
-    <row r="62" ht="15" customHeight="1">
-      <c r="A62" s="57" t="inlineStr">
-        <is>
-          <t>11. Poblats Marítims</t>
-        </is>
-      </c>
-      <c r="B62" s="57" t="n"/>
-      <c r="C62" s="43" t="n"/>
-      <c r="D62" s="43" t="n"/>
-      <c r="E62" s="49" t="n"/>
+    <row r="62" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" s="29"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="28"/>
     </row>
-    <row r="63" ht="15" customHeight="1">
-      <c r="A63" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   1. el Grau</t>
-        </is>
-      </c>
-      <c r="B63" s="31" t="n">
+    <row r="63" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="24">
         <v>23</v>
       </c>
-      <c r="C63" s="44" t="n">
+      <c r="C63" s="42">
         <v>56397.41</v>
       </c>
-      <c r="D63" s="44" t="n">
+      <c r="D63" s="42">
         <v>53730.16</v>
       </c>
-      <c r="E63" s="47" t="n">
+      <c r="E63" s="46">
         <v>37034135.43</v>
       </c>
     </row>
-    <row r="64" ht="15" customHeight="1">
-      <c r="A64" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   2. el Cabanyal-el Canyamelar</t>
-        </is>
-      </c>
-      <c r="B64" s="57" t="n">
+    <row r="64" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" s="29">
         <v>138</v>
       </c>
-      <c r="C64" s="43" t="n">
+      <c r="C64" s="43">
         <v>43338.23</v>
       </c>
-      <c r="D64" s="43" t="n">
+      <c r="D64" s="43">
         <v>47327.17</v>
       </c>
-      <c r="E64" s="49" t="n">
-        <v>52089459.38</v>
+      <c r="E64" s="28">
+        <v>52089459.380000003</v>
       </c>
     </row>
-    <row r="65" ht="15" customHeight="1">
-      <c r="A65" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   3. la Malva-rosa</t>
-        </is>
-      </c>
-      <c r="B65" s="31" t="n">
+    <row r="65" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" s="31">
         <v>14</v>
       </c>
-      <c r="C65" s="44" t="n">
-        <v>21467.6</v>
-      </c>
-      <c r="D65" s="44" t="n">
+      <c r="C65" s="44">
+        <v>21467.599999999999</v>
+      </c>
+      <c r="D65" s="44">
         <v>12350.54</v>
       </c>
-      <c r="E65" s="47" t="n">
+      <c r="E65" s="47">
         <v>15862163.1</v>
       </c>
     </row>
-    <row r="66" ht="15" customHeight="1">
-      <c r="A66" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   4. Beteró</t>
-        </is>
-      </c>
-      <c r="B66" s="57" t="n">
+    <row r="66" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="29">
         <v>7</v>
       </c>
-      <c r="C66" s="43" t="n">
+      <c r="C66" s="43">
         <v>30385.02</v>
       </c>
-      <c r="D66" s="43" t="n">
+      <c r="D66" s="43">
         <v>7800.8</v>
       </c>
-      <c r="E66" s="49" t="n">
+      <c r="E66" s="28">
         <v>5721656.46</v>
       </c>
     </row>
-    <row r="67" ht="15" customHeight="1">
-      <c r="A67" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   5. Natzaret</t>
-        </is>
-      </c>
-      <c r="B67" s="31" t="n">
+    <row r="67" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" s="24">
         <v>46</v>
       </c>
-      <c r="C67" s="44" t="n">
+      <c r="C67" s="42">
         <v>29081.58</v>
       </c>
-      <c r="D67" s="44" t="n">
+      <c r="D67" s="42">
         <v>10717.16</v>
       </c>
-      <c r="E67" s="47" t="n">
-        <v>27467952.87</v>
+      <c r="E67" s="46">
+        <v>27467952.870000001</v>
       </c>
     </row>
-    <row r="68" ht="15" customHeight="1">
-      <c r="A68" s="57" t="inlineStr">
-        <is>
-          <t>12. Camins Al Grau</t>
-        </is>
-      </c>
-      <c r="B68" s="17" t="n"/>
-      <c r="C68" s="45" t="n"/>
-      <c r="D68" s="45" t="n"/>
-      <c r="E68" s="48" t="n"/>
+    <row r="68" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="17"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="45"/>
+      <c r="E68" s="48"/>
     </row>
-    <row r="69" ht="15" customHeight="1">
-      <c r="A69" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   1. Aiora</t>
-        </is>
-      </c>
-      <c r="B69" s="31" t="n">
+    <row r="69" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" s="24">
         <v>22</v>
       </c>
-      <c r="C69" s="44" t="n">
+      <c r="C69" s="42">
         <v>22550.36</v>
       </c>
-      <c r="D69" s="44" t="n">
+      <c r="D69" s="42">
         <v>16193.08</v>
       </c>
-      <c r="E69" s="47" t="n">
+      <c r="E69" s="46">
         <v>15126092.16</v>
       </c>
     </row>
-    <row r="70" ht="15" customHeight="1">
-      <c r="A70" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   2. Albors</t>
-        </is>
-      </c>
-      <c r="B70" s="57" t="n">
+    <row r="70" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" s="29">
         <v>4</v>
       </c>
-      <c r="C70" s="43" t="n">
+      <c r="C70" s="43">
         <v>7180.32</v>
       </c>
-      <c r="D70" s="43" t="n">
+      <c r="D70" s="43">
         <v>7410.4</v>
       </c>
-      <c r="E70" s="49" t="n">
+      <c r="E70" s="28">
         <v>3499251.14</v>
       </c>
     </row>
-    <row r="71" ht="15" customHeight="1">
-      <c r="A71" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   3. la Creu del Grau</t>
-        </is>
-      </c>
-      <c r="B71" s="31" t="n">
+    <row r="71" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" s="24">
         <v>10</v>
       </c>
-      <c r="C71" s="44" t="n">
+      <c r="C71" s="42">
         <v>22046.18</v>
       </c>
-      <c r="D71" s="44" t="n">
+      <c r="D71" s="42">
         <v>7081.82</v>
       </c>
-      <c r="E71" s="47" t="n">
+      <c r="E71" s="46">
         <v>15747413.17</v>
       </c>
     </row>
-    <row r="72" ht="15" customHeight="1">
-      <c r="A72" s="41" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   4. Camí Fondo</t>
-        </is>
-      </c>
-      <c r="B72" s="17" t="n">
+    <row r="72" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" s="17">
         <v>2</v>
       </c>
-      <c r="C72" s="45" t="n">
+      <c r="C72" s="45">
         <v>3576.58</v>
       </c>
-      <c r="D72" s="45" t="n">
+      <c r="D72" s="45">
         <v>0</v>
       </c>
-      <c r="E72" s="48" t="n">
+      <c r="E72" s="48">
         <v>436818.73</v>
       </c>
     </row>
-    <row r="73" ht="15" customHeight="1">
-      <c r="A73" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   5. Penya-roja</t>
-        </is>
-      </c>
-      <c r="B73" s="31" t="n">
+    <row r="73" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B73" s="24">
         <v>13</v>
       </c>
-      <c r="C73" s="44" t="n">
+      <c r="C73" s="42">
         <v>65144.33</v>
       </c>
-      <c r="D73" s="44" t="n">
+      <c r="D73" s="42">
         <v>49051.93</v>
       </c>
-      <c r="E73" s="47" t="n">
-        <v>59998180.97</v>
+      <c r="E73" s="46">
+        <v>59998180.969999999</v>
       </c>
     </row>
-    <row r="74" ht="15" customHeight="1">
-      <c r="A74" s="41" t="inlineStr">
-        <is>
-          <t>13. Algirós</t>
-        </is>
-      </c>
-      <c r="B74" s="17" t="n"/>
-      <c r="C74" s="45" t="n"/>
-      <c r="D74" s="45" t="n"/>
-      <c r="E74" s="48" t="n"/>
+    <row r="74" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B74" s="17"/>
+      <c r="C74" s="45"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="48"/>
     </row>
-    <row r="75" ht="15" customHeight="1">
-      <c r="A75" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   1. l'Illa Perduda</t>
-        </is>
-      </c>
-      <c r="B75" s="31" t="n">
+    <row r="75" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" s="24">
         <v>9</v>
       </c>
-      <c r="C75" s="44" t="n">
-        <v>20992.24</v>
-      </c>
-      <c r="D75" s="44" t="n">
+      <c r="C75" s="42">
+        <v>20992.240000000002</v>
+      </c>
+      <c r="D75" s="42">
         <v>19263.23</v>
       </c>
-      <c r="E75" s="47" t="n">
+      <c r="E75" s="46">
         <v>32207162.34</v>
       </c>
     </row>
-    <row r="76" ht="15" customHeight="1">
-      <c r="A76" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   2. Ciutat Jardí</t>
-        </is>
-      </c>
-      <c r="B76" s="57" t="n">
+    <row r="76" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" s="29">
         <v>5</v>
       </c>
-      <c r="C76" s="43" t="n">
-        <v>21130.96</v>
-      </c>
-      <c r="D76" s="43" t="n">
+      <c r="C76" s="43">
+        <v>21130.959999999999</v>
+      </c>
+      <c r="D76" s="43">
         <v>21652.36</v>
       </c>
-      <c r="E76" s="49" t="n">
-        <v>25702889.37</v>
+      <c r="E76" s="28">
+        <v>25702889.370000001</v>
       </c>
     </row>
-    <row r="77" ht="15" customHeight="1">
-      <c r="A77" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   3. l'Amistat</t>
-        </is>
-      </c>
-      <c r="B77" s="31" t="n">
+    <row r="77" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" s="24">
         <v>5</v>
       </c>
-      <c r="C77" s="44" t="n">
+      <c r="C77" s="42">
         <v>6569.06</v>
       </c>
-      <c r="D77" s="44" t="n">
+      <c r="D77" s="42">
         <v>5205.83</v>
       </c>
-      <c r="E77" s="47" t="n">
-        <v>7732563.02</v>
+      <c r="E77" s="46">
+        <v>7732563.0199999996</v>
       </c>
     </row>
-    <row r="78" ht="15" customHeight="1">
-      <c r="A78" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   4. la Bega Baixa</t>
-        </is>
-      </c>
-      <c r="B78" s="57" t="n">
+    <row r="78" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" s="29">
         <v>4</v>
       </c>
-      <c r="C78" s="43" t="n">
+      <c r="C78" s="43">
         <v>8968.91</v>
       </c>
-      <c r="D78" s="43" t="n">
+      <c r="D78" s="43">
         <v>4765.03</v>
       </c>
-      <c r="E78" s="49" t="n">
-        <v>8851050.68</v>
+      <c r="E78" s="28">
+        <v>8851050.6799999997</v>
       </c>
     </row>
-    <row r="79" ht="15" customHeight="1">
-      <c r="A79" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   5. la Carrasca</t>
-        </is>
-      </c>
-      <c r="B79" s="31" t="n">
+    <row r="79" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" s="24">
         <v>10</v>
       </c>
-      <c r="C79" s="44" t="n">
+      <c r="C79" s="42">
         <v>83912.69</v>
       </c>
-      <c r="D79" s="44" t="n">
-        <v>17883.01</v>
-      </c>
-      <c r="E79" s="47" t="n">
+      <c r="D79" s="42">
+        <v>17883.009999999998</v>
+      </c>
+      <c r="E79" s="46">
         <v>22627568.59</v>
       </c>
     </row>
-    <row r="80" ht="15" customHeight="1">
-      <c r="A80" s="57" t="inlineStr">
-        <is>
-          <t>14. Benimaclet</t>
-        </is>
-      </c>
-      <c r="B80" s="57" t="n"/>
-      <c r="C80" s="43" t="n"/>
-      <c r="D80" s="43" t="n"/>
-      <c r="E80" s="49" t="n"/>
+    <row r="80" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80" s="29"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="43"/>
+      <c r="E80" s="28"/>
     </row>
-    <row r="81" ht="15" customHeight="1">
-      <c r="A81" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   1. Benimaclet</t>
-        </is>
-      </c>
-      <c r="B81" s="31" t="n">
+    <row r="81" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B81" s="24">
         <v>13</v>
       </c>
-      <c r="C81" s="44" t="n">
+      <c r="C81" s="42">
         <v>24767.66</v>
       </c>
-      <c r="D81" s="44" t="n">
+      <c r="D81" s="42">
         <v>10777.91</v>
       </c>
-      <c r="E81" s="47" t="n">
-        <v>19733794.87</v>
+      <c r="E81" s="46">
+        <v>19733794.870000001</v>
       </c>
     </row>
-    <row r="82" ht="15" customHeight="1">
-      <c r="A82" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   2. Camí de Vera</t>
-        </is>
-      </c>
-      <c r="B82" s="57" t="n">
+    <row r="82" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="B82" s="29">
         <v>6</v>
       </c>
-      <c r="C82" s="43" t="n">
-        <v>10213.72</v>
-      </c>
-      <c r="D82" s="43" t="n">
+      <c r="C82" s="43">
+        <v>10213.719999999999</v>
+      </c>
+      <c r="D82" s="43">
         <v>5164.83</v>
       </c>
-      <c r="E82" s="49" t="n">
+      <c r="E82" s="28">
         <v>5542739.71</v>
       </c>
     </row>
-    <row r="83" ht="15" customHeight="1">
-      <c r="A83" s="31" t="inlineStr">
-        <is>
-          <t>15. Rascanya</t>
-        </is>
-      </c>
-      <c r="B83" s="31" t="n"/>
-      <c r="C83" s="44" t="n"/>
-      <c r="D83" s="44" t="n"/>
-      <c r="E83" s="47" t="n"/>
+    <row r="83" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B83" s="24"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="46"/>
     </row>
-    <row r="84" ht="15" customHeight="1">
-      <c r="A84" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   1. Orriols</t>
-        </is>
-      </c>
-      <c r="B84" s="57" t="n">
+    <row r="84" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B84" s="29">
         <v>13</v>
       </c>
-      <c r="C84" s="43" t="n">
+      <c r="C84" s="43">
         <v>25547.65</v>
       </c>
-      <c r="D84" s="43" t="n">
+      <c r="D84" s="43">
         <v>24878.89</v>
       </c>
-      <c r="E84" s="49" t="n">
-        <v>8475918.050000001</v>
+      <c r="E84" s="28">
+        <v>8475918.0500000007</v>
       </c>
     </row>
-    <row r="85" ht="15" customHeight="1">
-      <c r="A85" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   2. Torrefiel</t>
-        </is>
-      </c>
-      <c r="B85" s="31" t="n">
+    <row r="85" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B85" s="24">
         <v>22</v>
       </c>
-      <c r="C85" s="44" t="n">
+      <c r="C85" s="42">
         <v>30752.06</v>
       </c>
-      <c r="D85" s="44" t="n">
+      <c r="D85" s="42">
         <v>14790.9</v>
       </c>
-      <c r="E85" s="47" t="n">
+      <c r="E85" s="46">
         <v>10250018.57</v>
       </c>
     </row>
-    <row r="86" ht="15" customHeight="1">
-      <c r="A86" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   3. Sant Llorenç</t>
-        </is>
-      </c>
-      <c r="B86" s="57" t="n">
+    <row r="86" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B86" s="29">
         <v>16</v>
       </c>
-      <c r="C86" s="43" t="n">
-        <v>77487.28999999999</v>
-      </c>
-      <c r="D86" s="43" t="n">
+      <c r="C86" s="43">
+        <v>77487.289999999994</v>
+      </c>
+      <c r="D86" s="43">
         <v>13974.09</v>
       </c>
-      <c r="E86" s="49" t="n">
-        <v>26052566.56</v>
+      <c r="E86" s="28">
+        <v>26052566.559999999</v>
       </c>
     </row>
-    <row r="87" ht="15" customHeight="1">
-      <c r="A87" s="31" t="inlineStr">
-        <is>
-          <t>16. Benicalap</t>
-        </is>
-      </c>
-      <c r="B87" s="31" t="n"/>
-      <c r="C87" s="44" t="n"/>
-      <c r="D87" s="44" t="n"/>
-      <c r="E87" s="47" t="n"/>
+    <row r="87" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87" s="24"/>
+      <c r="C87" s="42"/>
+      <c r="D87" s="42"/>
+      <c r="E87" s="46"/>
     </row>
-    <row r="88" ht="15" customHeight="1">
-      <c r="A88" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   1. Benicalap</t>
-        </is>
-      </c>
-      <c r="B88" s="57" t="n">
+    <row r="88" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B88" s="29">
         <v>38</v>
       </c>
-      <c r="C88" s="43" t="n">
+      <c r="C88" s="43">
         <v>116514.27</v>
       </c>
-      <c r="D88" s="43" t="n">
-        <v>26919.28</v>
-      </c>
-      <c r="E88" s="49" t="n">
-        <v>66020540.24</v>
+      <c r="D88" s="43">
+        <v>26919.279999999999</v>
+      </c>
+      <c r="E88" s="28">
+        <v>66020540.240000002</v>
       </c>
     </row>
-    <row r="89" ht="15" customHeight="1">
-      <c r="A89" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   2. Ciutat Fallera</t>
-        </is>
-      </c>
-      <c r="B89" s="31" t="n">
+    <row r="89" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" s="24">
         <v>8</v>
       </c>
-      <c r="C89" s="44" t="n">
+      <c r="C89" s="42">
         <v>23880.73</v>
       </c>
-      <c r="D89" s="44" t="n">
+      <c r="D89" s="42">
         <v>8178.35</v>
       </c>
-      <c r="E89" s="47" t="n">
+      <c r="E89" s="46">
         <v>13093848.84</v>
       </c>
     </row>
-    <row r="90" ht="15" customHeight="1">
-      <c r="A90" s="57" t="inlineStr">
-        <is>
-          <t>17. Pobles del Nord</t>
-        </is>
-      </c>
-      <c r="B90" s="57" t="n"/>
-      <c r="C90" s="43" t="n"/>
-      <c r="D90" s="43" t="n"/>
-      <c r="E90" s="49" t="n"/>
+    <row r="90" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90" s="29"/>
+      <c r="C90" s="43"/>
+      <c r="D90" s="43"/>
+      <c r="E90" s="28"/>
     </row>
-    <row r="91" ht="15" customHeight="1">
-      <c r="A91" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   1. Benifaraig</t>
-        </is>
-      </c>
-      <c r="B91" s="31" t="n">
+    <row r="91" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B91" s="24">
         <v>5</v>
       </c>
-      <c r="C91" s="44" t="n">
+      <c r="C91" s="42">
         <v>18725.98</v>
       </c>
-      <c r="D91" s="44" t="n">
+      <c r="D91" s="42">
         <v>4666.13</v>
       </c>
-      <c r="E91" s="47" t="n">
+      <c r="E91" s="46">
         <v>1842500.48</v>
       </c>
     </row>
-    <row r="92" ht="15" customHeight="1">
-      <c r="A92" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   2. Poble Nou</t>
-        </is>
-      </c>
-      <c r="B92" s="57" t="n">
+    <row r="92" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B92" s="29">
         <v>3</v>
       </c>
-      <c r="C92" s="43" t="n">
+      <c r="C92" s="43">
         <v>11949.29</v>
       </c>
-      <c r="D92" s="43" t="n">
+      <c r="D92" s="43">
         <v>368.58</v>
       </c>
-      <c r="E92" s="49" t="n">
+      <c r="E92" s="28">
         <v>563818.5</v>
       </c>
     </row>
-    <row r="93" ht="15" customHeight="1">
-      <c r="A93" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   3. Carpesa</t>
-        </is>
-      </c>
-      <c r="B93" s="31" t="n">
+    <row r="93" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93" s="24">
         <v>2</v>
       </c>
-      <c r="C93" s="44" t="n">
+      <c r="C93" s="42">
         <v>490.4</v>
       </c>
-      <c r="D93" s="44" t="n">
+      <c r="D93" s="42">
         <v>1013.64</v>
       </c>
-      <c r="E93" s="47" t="n">
+      <c r="E93" s="46">
         <v>1082321.21</v>
       </c>
     </row>
-    <row r="94" ht="15" customHeight="1">
-      <c r="A94" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   4. Cases de Bàrcena</t>
-        </is>
-      </c>
-      <c r="B94" s="57" t="n">
+    <row r="94" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B94" s="29">
         <v>1</v>
       </c>
-      <c r="C94" s="43" t="n">
+      <c r="C94" s="43">
         <v>1413</v>
       </c>
-      <c r="D94" s="43" t="n">
+      <c r="D94" s="43">
         <v>400.62</v>
       </c>
-      <c r="E94" s="49" t="n">
+      <c r="E94" s="28">
         <v>285000</v>
       </c>
     </row>
-    <row r="95" ht="15" customHeight="1">
-      <c r="A95" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   5. Mauella</t>
-        </is>
-      </c>
-      <c r="B95" s="31" t="n">
+    <row r="95" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B95" s="24">
         <v>1</v>
       </c>
-      <c r="C95" s="44" t="n">
+      <c r="C95" s="42">
         <v>73.33</v>
       </c>
-      <c r="D95" s="44" t="n">
-        <v>133.17</v>
-      </c>
-      <c r="E95" s="47" t="n">
+      <c r="D95" s="42">
+        <v>133.16999999999999</v>
+      </c>
+      <c r="E95" s="46">
         <v>23770.03</v>
       </c>
     </row>
-    <row r="96" ht="15" customHeight="1">
-      <c r="A96" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   6. Massarrojos</t>
-        </is>
-      </c>
-      <c r="B96" s="57" t="n">
+    <row r="96" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B96" s="29">
         <v>10</v>
       </c>
-      <c r="C96" s="43" t="n">
+      <c r="C96" s="43">
         <v>21654.55</v>
       </c>
-      <c r="D96" s="43" t="n">
+      <c r="D96" s="43">
         <v>2856.18</v>
       </c>
-      <c r="E96" s="49" t="n">
-        <v>4983181.94</v>
+      <c r="E96" s="28">
+        <v>4983181.9400000004</v>
       </c>
     </row>
-    <row r="97" ht="15" customHeight="1">
-      <c r="A97" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   7. Borbotó</t>
-        </is>
-      </c>
-      <c r="B97" s="31" t="n">
+    <row r="97" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B97" s="24">
         <v>4</v>
       </c>
-      <c r="C97" s="44" t="n">
+      <c r="C97" s="42">
         <v>821.99</v>
       </c>
-      <c r="D97" s="44" t="n">
+      <c r="D97" s="42">
         <v>860.65</v>
       </c>
-      <c r="E97" s="47" t="n">
+      <c r="E97" s="46">
         <v>398053.82</v>
       </c>
     </row>
-    <row r="98" ht="15" customHeight="1">
-      <c r="A98" s="57" t="inlineStr">
-        <is>
-          <t>18. Pobles de l'Oest</t>
-        </is>
-      </c>
-      <c r="B98" s="57" t="n"/>
-      <c r="C98" s="43" t="n"/>
-      <c r="D98" s="43" t="n"/>
-      <c r="E98" s="49" t="n"/>
+    <row r="98" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B98" s="29"/>
+      <c r="C98" s="43"/>
+      <c r="D98" s="43"/>
+      <c r="E98" s="28"/>
     </row>
-    <row r="99" ht="15" customHeight="1">
-      <c r="A99" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   1. Benimàmet</t>
-        </is>
-      </c>
-      <c r="B99" s="31" t="n">
+    <row r="99" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="B99" s="24">
         <v>20</v>
       </c>
-      <c r="C99" s="44" t="n">
+      <c r="C99" s="42">
         <v>39606.58</v>
       </c>
-      <c r="D99" s="44" t="n">
-        <v>9209.290000000001</v>
-      </c>
-      <c r="E99" s="47" t="n">
+      <c r="D99" s="42">
+        <v>9209.2900000000009</v>
+      </c>
+      <c r="E99" s="46">
         <v>14018363.66</v>
       </c>
     </row>
-    <row r="100" ht="15" customHeight="1">
-      <c r="A100" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   2. Beniferri</t>
-        </is>
-      </c>
-      <c r="B100" s="57" t="n">
+    <row r="100" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B100" s="29">
         <v>3</v>
       </c>
-      <c r="C100" s="43" t="n">
+      <c r="C100" s="43">
         <v>33771.14</v>
       </c>
-      <c r="D100" s="43" t="n">
+      <c r="D100" s="43">
         <v>34697.21</v>
       </c>
-      <c r="E100" s="49" t="n">
+      <c r="E100" s="28">
         <v>45285934.75</v>
       </c>
     </row>
-    <row r="101" ht="15" customHeight="1">
-      <c r="A101" s="31" t="inlineStr">
-        <is>
-          <t>19. Pobles del Sud</t>
-        </is>
-      </c>
-      <c r="B101" s="31" t="n"/>
-      <c r="C101" s="44" t="n"/>
-      <c r="D101" s="44" t="n"/>
-      <c r="E101" s="47" t="n"/>
+    <row r="101" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B101" s="24"/>
+      <c r="C101" s="42"/>
+      <c r="D101" s="42"/>
+      <c r="E101" s="46"/>
     </row>
-    <row r="102" ht="15" customHeight="1">
-      <c r="A102" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   1. el Forn d'Alcedo</t>
-        </is>
-      </c>
-      <c r="B102" s="57" t="n">
+    <row r="102" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B102" s="29">
         <v>2</v>
       </c>
-      <c r="C102" s="43" t="n">
+      <c r="C102" s="43">
         <v>7028.11</v>
       </c>
-      <c r="D102" s="43" t="n">
+      <c r="D102" s="43">
         <v>3001.86</v>
       </c>
-      <c r="E102" s="49" t="n">
+      <c r="E102" s="28">
         <v>1696398.27</v>
       </c>
     </row>
-    <row r="103" ht="15" customHeight="1">
-      <c r="A103" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   2. el Castellar-l'Oliverar</t>
-        </is>
-      </c>
-      <c r="B103" s="31" t="n">
+    <row r="103" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="B103" s="24">
         <v>6</v>
       </c>
-      <c r="C103" s="44" t="n">
+      <c r="C103" s="42">
         <v>22652.2</v>
       </c>
-      <c r="D103" s="44" t="n">
+      <c r="D103" s="42">
         <v>8400.34</v>
       </c>
-      <c r="E103" s="47" t="n">
+      <c r="E103" s="46">
         <v>4907510.91</v>
       </c>
     </row>
-    <row r="104" ht="15" customHeight="1">
-      <c r="A104" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   3. Pinedo</t>
-        </is>
-      </c>
-      <c r="B104" s="57" t="n">
+    <row r="104" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="B104" s="29">
         <v>4</v>
       </c>
-      <c r="C104" s="43" t="n">
+      <c r="C104" s="43">
         <v>8968.75</v>
       </c>
-      <c r="D104" s="43" t="n">
+      <c r="D104" s="43">
         <v>6491.99</v>
       </c>
-      <c r="E104" s="49" t="n">
+      <c r="E104" s="28">
         <v>12684143.59</v>
       </c>
     </row>
-    <row r="105" ht="15" customHeight="1">
-      <c r="A105" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   4. el Saler</t>
-        </is>
-      </c>
-      <c r="B105" s="31" t="n">
+    <row r="105" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="B105" s="24">
         <v>15</v>
       </c>
-      <c r="C105" s="44" t="n">
+      <c r="C105" s="42">
         <v>88198.12</v>
       </c>
-      <c r="D105" s="44" t="n">
-        <v>16483.83</v>
-      </c>
-      <c r="E105" s="47" t="n">
+      <c r="D105" s="42">
+        <v>16483.830000000002</v>
+      </c>
+      <c r="E105" s="46">
         <v>12914231.49</v>
       </c>
     </row>
-    <row r="106" ht="15" customHeight="1">
-      <c r="A106" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   5. el Palmar</t>
-        </is>
-      </c>
-      <c r="B106" s="57" t="n">
+    <row r="106" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B106" s="29">
         <v>15</v>
       </c>
-      <c r="C106" s="43" t="n">
+      <c r="C106" s="43">
         <v>26322.52</v>
       </c>
-      <c r="D106" s="43" t="n">
+      <c r="D106" s="43">
         <v>7836.08</v>
       </c>
-      <c r="E106" s="49" t="n">
+      <c r="E106" s="28">
         <v>4752602.34</v>
       </c>
     </row>
-    <row r="107" ht="15" customHeight="1">
-      <c r="A107" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   6. el Perellonet</t>
-        </is>
-      </c>
-      <c r="B107" s="31" t="n">
+    <row r="107" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B107" s="24">
         <v>4</v>
       </c>
-      <c r="C107" s="44" t="n">
+      <c r="C107" s="42">
         <v>23644.85</v>
       </c>
-      <c r="D107" s="44" t="n">
+      <c r="D107" s="42">
         <v>11174.86</v>
       </c>
-      <c r="E107" s="47" t="n">
-        <v>6979910.2</v>
+      <c r="E107" s="46">
+        <v>6979910.2000000002</v>
       </c>
     </row>
-    <row r="108" ht="15" customHeight="1">
-      <c r="A108" s="57" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   7. la Torre</t>
-        </is>
-      </c>
-      <c r="B108" s="57" t="n">
+    <row r="108" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="B108" s="29">
         <v>6</v>
       </c>
-      <c r="C108" s="43" t="n">
+      <c r="C108" s="43">
         <v>7178.51</v>
       </c>
-      <c r="D108" s="43" t="n">
+      <c r="D108" s="43">
         <v>5775.45</v>
       </c>
-      <c r="E108" s="49" t="n">
+      <c r="E108" s="28">
         <v>2345812.5</v>
       </c>
     </row>
-    <row r="109" ht="15" customHeight="1">
-      <c r="A109" s="31" t="inlineStr">
-        <is>
-          <t xml:space="preserve">   8. Faitanar</t>
-        </is>
-      </c>
-      <c r="B109" s="31" t="n">
+    <row r="109" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B109" s="24">
         <v>6</v>
       </c>
-      <c r="C109" s="44" t="n">
+      <c r="C109" s="42">
         <v>20878.75</v>
       </c>
-      <c r="D109" s="44" t="n">
+      <c r="D109" s="42">
         <v>1052.78</v>
       </c>
-      <c r="E109" s="47" t="n">
-        <v>6580415.51</v>
+      <c r="E109" s="46">
+        <v>6580415.5099999998</v>
       </c>
     </row>
-    <row r="110" ht="15" customHeight="1">
-      <c r="A110" s="57" t="inlineStr">
-        <is>
-          <t>Fuera del término municipal</t>
-        </is>
-      </c>
-      <c r="B110" s="57" t="n">
+    <row r="110" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="B110" s="29">
         <v>25</v>
       </c>
-      <c r="C110" s="43" t="n">
+      <c r="C110" s="43">
         <v>505782.09</v>
       </c>
-      <c r="D110" s="43" t="n">
+      <c r="D110" s="43">
         <v>39050.28</v>
       </c>
-      <c r="E110" s="49" t="n">
+      <c r="E110" s="28">
         <v>129732146.08</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="18" t="inlineStr">
-        <is>
-          <t>Nota: Superficie expresada en metros cuadrados. Valor expresado en euros</t>
-        </is>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="18" t="s">
+        <v>132</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="18" t="inlineStr">
-        <is>
-          <t>Fuente: Servicio de Patrimonio. Ayuntamiento de València</t>
-        </is>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="18" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="92" fitToHeight="2"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" scale="92" fitToHeight="2" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>